--- a/step3_noise_generation/error_reports_xlsx/omission_errors.xlsx
+++ b/step3_noise_generation/error_reports_xlsx/omission_errors.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>maumission</t>
+          <t>Hambur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>manumission</t>
+          <t>Hamburg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>He began opposing slavery near the end of his life, and provided in his will for the eventual maumission of his slaves.</t>
+          <t>Merkel was born in Hambur in West Germany.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>He began opposing slavery near the end of his life, and provided in his will for the eventual manumission of his slaves.</t>
+          <t>Merkel was born in Hamburg in West Germany.</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>steepd</t>
+          <t>Grsse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>steeped</t>
+          <t>Grosse</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Traditions may also be steepd in a sense of identity.</t>
+          <t>His late string quartets, including the Grsse Fuge, of 1825–1826 are among his final achievements.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Traditions may also be steeped in a sense of identity.</t>
+          <t>His late string quartets, including the Grosse Fuge, of 1825–1826 are among his final achievements.</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aana</t>
+          <t>aalysis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adana</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>It is located approximately 185 km (115 mi) east of Aana and 97 km (60 mi) north of Aleppo, Syria and situated on the Sajur River.</t>
+          <t>Regarded as a part of both the social sciences and humanities, sociology uses various methods of empirical investigation and critical aalysis to develop a body of knowledge about social order and social change.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>It is located approximately 185 km (115 mi) east of Adana and 97 km (60 mi) north of Aleppo, Syria and situated on the Sajur River.</t>
+          <t>Regarded as a part of both the social sciences and humanities, sociology uses various methods of empirical investigation and critical analysis to develop a body of knowledge about social order and social change.</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>domstic</t>
+          <t>refus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>domestic</t>
+          <t>refuse</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In most countries, such trade represents a significant share of gross domstic product (GDP).</t>
+          <t>Freedom of the press gives the printer or publisher exclusive control over what the publisher chooses to publish, including the right to refus to print anything for any reason.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In most countries, such trade represents a significant share of gross domestic product (GDP).</t>
+          <t>Freedom of the press gives the printer or publisher exclusive control over what the publisher chooses to publish, including the right to refuse to print anything for any reason.</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>eolution</t>
+          <t>threts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>threats</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>With the eolution of the digital age, new means of communication emerged.</t>
+          <t>After threts from Germany and the Soviet Union, Turkey maintained neutrality.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>With the evolution of the digital age, new means of communication emerged.</t>
+          <t>After threats from Germany and the Soviet Union, Turkey maintained neutrality.</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Turkih</t>
+          <t>oted</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Turkish</t>
+          <t>voted</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nine years after its introduction, laïcité was explicitly stated in the second article of the then Turkih constitution on 5 February 1937.</t>
+          <t>In May 1776, Congress oted to suppress all forms of Crown authority, to be replaced by locally created authority, and each colony created a state constitution.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nine years after its introduction, laïcité was explicitly stated in the second article of the then Turkish constitution on 5 February 1937.</t>
+          <t>In May 1776, Congress voted to suppress all forms of Crown authority, to be replaced by locally created authority, and each colony created a state constitution.</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wich</t>
+          <t>German</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>He acquired Swiss citizenship a year later, wich he kept for the rest of his life, and afterwards secured a permanent position at the Swiss Patent Office in Bern.</t>
+          <t>In 1940, the Soviet Union annexed the Baltic states and parts of Finland and Romania, while German conquered Norway, Belgium, Luxembourg, and the Netherlands.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>He acquired Swiss citizenship a year later, which he kept for the rest of his life, and afterwards secured a permanent position at the Swiss Patent Office in Bern.</t>
+          <t>In 1940, the Soviet Union annexed the Baltic states and parts of Finland and Romania, while Germany conquered Norway, Belgium, Luxembourg, and the Netherlands.</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sigs</t>
+          <t>Rhods</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>signs</t>
+          <t>Rhodes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>In a physical examination, medical examination, clinical examination, or medical checkup, a medical practitioner examines a patient for any possible medical sigs or symptoms of a medical condition.</t>
+          <t>Oxford is home to a number of scholarships, including the Rhods Scholarship, one of the oldest international graduate scholarship programmes in the world.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>In a physical examination, medical examination, clinical examination, or medical checkup, a medical practitioner examines a patient for any possible medical signs or symptoms of a medical condition.</t>
+          <t>Oxford is home to a number of scholarships, including the Rhodes Scholarship, one of the oldest international graduate scholarship programmes in the world.</t>
         </is>
       </c>
     </row>
@@ -672,22 +672,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>larges</t>
+          <t>midle</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>largest</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brazil, officially the Federative Republic of Brazil, is the larges country in South America.</t>
+          <t>The Middle Ages is the midle period of the three traditional divisions of Western history: classical antiquity, the medieval period, and the modern period.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Brazil, officially the Federative Republic of Brazil, is the largest country in South America.</t>
+          <t>The Middle Ages is the middle period of the three traditional divisions of Western history: classical antiquity, the medieval period, and the modern period.</t>
         </is>
       </c>
     </row>
@@ -699,22 +699,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mslim</t>
+          <t>greenhuse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Muslim</t>
+          <t>greenhouse</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>During the Mslim conquests in the Indian subcontinent, sharia was established by the Muslim sultanates and empires, most notably Mughal Empire's Fatawa-e-Alamgiri, compiled by emperor Aurangzeb and various scholars of Islam.</t>
+          <t>Fossil fuel use, deforestation, and some agricultural and industrial practices release greenhuse gases.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>During the Muslim conquests in the Indian subcontinent, sharia was established by the Muslim sultanates and empires, most notably Mughal Empire's Fatawa-e-Alamgiri, compiled by emperor Aurangzeb and various scholars of Islam.</t>
+          <t>Fossil fuel use, deforestation, and some agricultural and industrial practices release greenhouse gases.</t>
         </is>
       </c>
     </row>
@@ -726,22 +726,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>effect</t>
+          <t>Fance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ethical concerns have been raised about AI's long-term effect and potential existential risks, prompting discussions about regulatory policies to ensure the safety and benefits of the technology.</t>
+          <t>In 1944, the Western Allies invaded Fance at Normandy, and the Soviet Union advanced into Central Europe.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ethical concerns have been raised about AI's long-term effects and potential existential risks, prompting discussions about regulatory policies to ensure the safety and benefits of the technology.</t>
+          <t>In 1944, the Western Allies invaded France at Normandy, and the Soviet Union advanced into Central Europe.</t>
         </is>
       </c>
     </row>
@@ -753,22 +753,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>increasingl</t>
+          <t>Brech</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>Breach</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Both a dynamic and characteristically constant feature of human life, the arts have developed into increasingl stylized and intricate forms.</t>
+          <t>Brech of such laws created an obligation of law or vinculum juris discharged by payment of monetary compensation or damages.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Both a dynamic and characteristically constant feature of human life, the arts have developed into increasingly stylized and intricate forms.</t>
+          <t>Breach of such laws created an obligation of law or vinculum juris discharged by payment of monetary compensation or damages.</t>
         </is>
       </c>
     </row>
@@ -780,22 +780,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vioent</t>
+          <t>Karm</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>violent</t>
+          <t>Karim</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Assault and vioent robbery were analogized to trespass as to property.</t>
+          <t>Karm could not easily find video clips of the incident and the 2004 Indian Ocean tsunami online, which led to the idea of a video-sharing site.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Assault and violent robbery were analogized to trespass as to property.</t>
+          <t>Karim could not easily find video clips of the incident and the 2004 Indian Ocean tsunami online, which led to the idea of a video-sharing site.</t>
         </is>
       </c>
     </row>
@@ -807,22 +807,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>siply</t>
+          <t>posiion</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>simply</t>
+          <t>position</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>He is often called England's national poet and the "Bard of Avon" or siply "the Bard".</t>
+          <t>As the presidency is the supreme magistracy of the country, the posiion is the highest office in France.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>He is often called England's national poet and the "Bard of Avon" or simply "the Bard".</t>
+          <t>As the presidency is the supreme magistracy of the country, the position is the highest office in France.</t>
         </is>
       </c>
     </row>
@@ -834,22 +834,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>odern</t>
+          <t>seemin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>modern</t>
+          <t>seeming</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>The movement had origins in the Reconstruction era in the late 19th century, and odern roots in the 1940s.</t>
+          <t>Acts 2:5 states "Now there were staying in Jerusalem God-fearing Jews from every nation under heaven," seemin to suggest that some of the Cappadocians were Jews, or part of the diaspora of Jews present in Jerusalem at the time.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>The movement had origins in the Reconstruction era in the late 19th century, and modern roots in the 1940s.</t>
+          <t>Acts 2:5 states "Now there were staying in Jerusalem God-fearing Jews from every nation under heaven," seeming to suggest that some of the Cappadocians were Jews, or part of the diaspora of Jews present in Jerusalem at the time.</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lagely</t>
+          <t>cmes</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>largely</t>
+          <t>comes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>The First Continental Congress began coordinating Patriot resistance through underground networks of committees lagely built on the foundations of the Sons of Liberty.</t>
+          <t>The English word winter cmes from the Proto-Germanic noun *wintru-, whose origin is unclear.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>The First Continental Congress began coordinating Patriot resistance through underground networks of committees largely built on the foundations of the Sons of Liberty.</t>
+          <t>The English word winter comes from the Proto-Germanic noun *wintru-, whose origin is unclear.</t>
         </is>
       </c>
     </row>
@@ -888,22 +888,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>establihed</t>
+          <t>viual</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>established</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>A 1962 referendum changed the constitution, so that the president would be directly elected by universal suffrage and not by the electoral college establihed in 1958.</t>
+          <t>Art refers to the way of doing or applying human creative skills, typically, but not necessarily, in viual form.</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A 1962 referendum changed the constitution, so that the president would be directly elected by universal suffrage and not by the electoral college established in 1958.</t>
+          <t>Art refers to the way of doing or applying human creative skills, typically, but not necessarily, in visual form.</t>
         </is>
       </c>
     </row>
@@ -915,22 +915,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>shll</t>
+          <t>ights</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>shall</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>It also has original jurisdiction over a narrow range of cases, specifically "all Cases affecting Ambassadors, other public Ministers and Consuls, and those in which a State shll be Party".</t>
+          <t>Likewise, in jurisdictions where social welfare services are guaranteed, citizens have legal claim ights to be provided with those services.</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>It also has original jurisdiction over a narrow range of cases, specifically "all Cases affecting Ambassadors, other public Ministers and Consuls, and those in which a State shall be Party".</t>
+          <t>Likewise, in jurisdictions where social welfare services are guaranteed, citizens have legal claim rights to be provided with those services.</t>
         </is>
       </c>
     </row>
@@ -942,22 +942,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>globl</t>
+          <t>eployer</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>global</t>
+          <t>employer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>International summits are now the most common expression for globl governance.</t>
+          <t>In 2018, McDonald's was the world's second-largest private eployer after Walmart; most of its 1.7 million employees work in the restaurant's franchises.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>International summits are now the most common expression for global governance.</t>
+          <t>In 2018, McDonald's was the world's second-largest private employer after Walmart; most of its 1.7 million employees work in the restaurant's franchises.</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mediina</t>
+          <t>investd</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Medicina</t>
+          <t>invested</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>It has been proved, though, that Barbarossa did pass through Mediina but that the name of the town predates that time.</t>
+          <t>Likewise, it was investd in the presidents of the Boer republics of the Transvaal and the Orange Free State.</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>It has been proved, though, that Barbarossa did pass through Medicina but that the name of the town predates that time.</t>
+          <t>Likewise, it was invested in the presidents of the Boer republics of the Transvaal and the Orange Free State.</t>
         </is>
       </c>
     </row>
@@ -996,22 +996,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>tudy</t>
+          <t>langage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>language</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>History is the systematic tudy of the past, focusing primarily on the human past.</t>
+          <t>Some distinctive characteristics of the Turkish langage are vowel harmony and extensive agglutination.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>History is the systematic study of the past, focusing primarily on the human past.</t>
+          <t>Some distinctive characteristics of the Turkish language are vowel harmony and extensive agglutination.</t>
         </is>
       </c>
     </row>
@@ -1023,22 +1023,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lection</t>
+          <t>lcation</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>election</t>
+          <t>location</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The length of the presidential term was reduced from seven years to five years following a 2000 referendum; the first lection for a shorter term was held in 2002.</t>
+          <t>Constantinople's lcation between the Golden Horn and the Sea of Marmara reduced the land area that required defensive walls.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The length of the presidential term was reduced from seven years to five years following a 2000 referendum; the first election for a shorter term was held in 2002.</t>
+          <t>Constantinople's location between the Golden Horn and the Sea of Marmara reduced the land area that required defensive walls.</t>
         </is>
       </c>
     </row>
@@ -1050,22 +1050,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>raws</t>
+          <t>Question</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>draws</t>
+          <t>Questions</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AI also raws upon psychology, linguistics, philosophy, neuroscience, and other fields.</t>
+          <t>Question of suffrage, especially suffrage for minority groups, have dominated the history of elections.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AI also draws upon psychology, linguistics, philosophy, neuroscience, and other fields.</t>
+          <t>Questions of suffrage, especially suffrage for minority groups, have dominated the history of elections.</t>
         </is>
       </c>
     </row>
@@ -1077,22 +1077,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Thse</t>
+          <t>erupte</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>These</t>
+          <t>erupted</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thse are reported to the primary care provider.</t>
+          <t>In a study published in February 2020, new evidence showed that both Budj Bim and Tower Hill volcanoes erupte between 34,000 and 40,000 years ago.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>These are reported to the primary care provider.</t>
+          <t>In a study published in February 2020, new evidence showed that both Budj Bim and Tower Hill volcanoes erupted between 34,000 and 40,000 years ago.</t>
         </is>
       </c>
     </row>
@@ -1104,22 +1104,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ottoma</t>
+          <t>intgration</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ottoman</t>
+          <t>integration</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>In Ottoman Turkish, the empire was referred to as Devlet-i ʿAlīye-yi ʿOsmānīye (دولت عليه عثمانیه), lit. 'Sublime Ottoma State', or simply Devlet-i ʿOsmānīye (دولت عثمانيه‎), lit. 'Ottoman State'.</t>
+          <t>Globalization is the process of increasing interdependence and intgration among the economies, markets, societies, and cultures of different countries worldwide.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>In Ottoman Turkish, the empire was referred to as Devlet-i ʿAlīye-yi ʿOsmānīye (دولت عليه عثمانیه), lit. 'Sublime Ottoman State', or simply Devlet-i ʿOsmānīye (دولت عثمانيه‎), lit. 'Ottoman State'.</t>
+          <t>Globalization is the process of increasing interdependence and integration among the economies, markets, societies, and cultures of different countries worldwide.</t>
         </is>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>surfac</t>
+          <t>acuired</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>surface</t>
+          <t>acquired</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A Moon landing or lunar landing is the arrival of a spacecraft on the surfac of the Moon, including both crewed and robotic missions.</t>
+          <t>Randolph had worked as a marketing director for Pure Software after Pure Atria acuired a company where Randolph worked.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A Moon landing or lunar landing is the arrival of a spacecraft on the surface of the Moon, including both crewed and robotic missions.</t>
+          <t>Randolph had worked as a marketing director for Pure Software after Pure Atria acquired a company where Randolph worked.</t>
         </is>
       </c>
     </row>
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>becae</t>
+          <t>arriers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>became</t>
+          <t>barriers</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Angered by the Kansas–Nebraska Act of 1854, which opened the territories to slavery, he becae a leader of the new Republican Party.</t>
+          <t>More recent technological inventions, including the printing press, telephone, and the Internet, have lowered arriers to communication and ushered in the knowledge economy.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Angered by the Kansas–Nebraska Act of 1854, which opened the territories to slavery, he became a leader of the new Republican Party.</t>
+          <t>More recent technological inventions, including the printing press, telephone, and the Internet, have lowered barriers to communication and ushered in the knowledge economy.</t>
         </is>
       </c>
     </row>
@@ -1185,22 +1185,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>defeses</t>
+          <t>oint</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>defenses</t>
+          <t>joint</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Although besieged on numerous occasions by various armies, the defeses of Constantinople proved impenetrable for nearly nine hundred years.</t>
+          <t>He was writing up his theory in 1858 when Wallace sent him an essay that described the same idea, prompting the immediate oint submission of both their theories to the Linnean Society of London.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Although besieged on numerous occasions by various armies, the defenses of Constantinople proved impenetrable for nearly nine hundred years.</t>
+          <t>He was writing up his theory in 1858 when Wallace sent him an essay that described the same idea, prompting the immediate joint submission of both their theories to the Linnean Society of London.</t>
         </is>
       </c>
     </row>
@@ -1212,22 +1212,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prouct</t>
+          <t>owneship</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>ownership</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The executive management typically consists of the heads of a firm's prouct and/or geographic units and of functional executives such as the chief financial officer, the chief operating officer, and the chief strategy officer.</t>
+          <t>Social owneship can take various forms, including public, community, collective, cooperative, or employee.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The executive management typically consists of the heads of a firm's product and/or geographic units and of functional executives such as the chief financial officer, the chief operating officer, and the chief strategy officer.</t>
+          <t>Social ownership can take various forms, including public, community, collective, cooperative, or employee.</t>
         </is>
       </c>
     </row>
@@ -1239,22 +1239,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>medim</t>
+          <t>Fourh</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>Fourth</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The arts are a medim through which humans cultivate distinct social, cultural, and individual identities while transmitting values, impressions, judgments, ideas, visions, spiritual meanings, patterns of life, and experiences across time and space.</t>
+          <t>In 1204, however, the armies of the Fourh Crusade took and devastated the city, and for six decades its inhabitants resided under Latin occupation in a dwindling and depopulated city.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>The arts are a medium through which humans cultivate distinct social, cultural, and individual identities while transmitting values, impressions, judgments, ideas, visions, spiritual meanings, patterns of life, and experiences across time and space.</t>
+          <t>In 1204, however, the armies of the Fourth Crusade took and devastated the city, and for six decades its inhabitants resided under Latin occupation in a dwindling and depopulated city.</t>
         </is>
       </c>
     </row>
@@ -1266,22 +1266,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ataleia</t>
+          <t>tured</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Attaleia</t>
+          <t>turned</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>It was named Ataleia or Attalia (Ancient Greek: Ἀττάλεια) in his honour.</t>
+          <t>Siblings Richard and Maurice McDonald, with the goal of making $1 million before they tured 50, opened the first McDonald's at 1398 North E Street at West 14th Street in San Bernardino, California, on May 15, 1940.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>It was named Attaleia or Attalia (Ancient Greek: Ἀττάλεια) in his honour.</t>
+          <t>Siblings Richard and Maurice McDonald, with the goal of making $1 million before they turned 50, opened the first McDonald's at 1398 North E Street at West 14th Street in San Bernardino, California, on May 15, 1940.</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1293,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ediion</t>
+          <t>cenury</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>edition</t>
+          <t>century</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>However, in 1623 John Heminges and Henry Condell, two fellow actors and friends of Shakespeare's, published a more definitive text known as the First Folio, a posthumous collected ediion of Shakespeare's dramatic works that includes 36 of his plays.</t>
+          <t>The Ottoman Empire, historically also known as the Turkish Empire, controlled much of Southeast Europe, West Asia, and North Africa from the 14th cenury to the early 20th century.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>However, in 1623 John Heminges and Henry Condell, two fellow actors and friends of Shakespeare's, published a more definitive text known as the First Folio, a posthumous collected edition of Shakespeare's dramatic works that includes 36 of his plays.</t>
+          <t>The Ottoman Empire, historically also known as the Turkish Empire, controlled much of Southeast Europe, West Asia, and North Africa from the 14th century to the early 20th century.</t>
         </is>
       </c>
     </row>
@@ -1320,22 +1320,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>beteen</t>
+          <t>pess</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>press</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>This latter word could mean companionship and fellowship as well as the more legalistic idea of a consensual contract beteen freemen".</t>
+          <t>Liebling, who wrote, "Freedom of the pess is guaranteed only to those who own one".</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>This latter word could mean companionship and fellowship as well as the more legalistic idea of a consensual contract between freemen".</t>
+          <t>Liebling, who wrote, "Freedom of the press is guaranteed only to those who own one".</t>
         </is>
       </c>
     </row>
@@ -1347,22 +1347,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>antropology</t>
+          <t>Afrca</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>anthropology</t>
+          <t>Africa</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Social antropology studies patterns of behaviour, while cultural anthropology studies cultural meaning, including norms and values.</t>
+          <t>The honorific Mahātmā (from Sanskrit, meaning great-souled, or venerable), first applied to him in South Afrca in 1914, is used worldwide.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Social anthropology studies patterns of behaviour, while cultural anthropology studies cultural meaning, including norms and values.</t>
+          <t>The honorific Mahātmā (from Sanskrit, meaning great-souled, or venerable), first applied to him in South Africa in 1914, is used worldwide.</t>
         </is>
       </c>
     </row>
@@ -1374,22 +1374,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>iberty</t>
+          <t>includ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>liberty</t>
+          <t>include</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>A iberty right or privilege, in contrast, is simply a freedom or permission for the right-holder to do something, and there are no obligations on other parties to do or not do anything.</t>
+          <t>Over the years, the field of architectural construction has branched out to includ everything from ship design to interior decorating.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A liberty right or privilege, in contrast, is simply a freedom or permission for the right-holder to do something, and there are no obligations on other parties to do or not do anything.</t>
+          <t>Over the years, the field of architectural construction has branched out to include everything from ship design to interior decorating.</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Althugh</t>
+          <t>presidental</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Although</t>
+          <t>presidential</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Althugh it was still a dusty, unpaved road, it was regularly graded and graveled.</t>
+          <t>On 10 February 2011 Mubarak transferred presidental powers to his recently appointed vice president, Omar Suleiman.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Although it was still a dusty, unpaved road, it was regularly graded and graveled.</t>
+          <t>On 10 February 2011 Mubarak transferred presidential powers to his recently appointed vice president, Omar Suleiman.</t>
         </is>
       </c>
     </row>
@@ -1428,22 +1428,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>naion</t>
+          <t>Earh</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>nation</t>
+          <t>Earth</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Following his re-election in 1864, he sought to heal the war-torn naion through Reconstruction.</t>
+          <t>The Earh is tilted at an angle of 23.44° to the plane of its orbit, causing different latitudes to directly face the Sun as the Earth moves through its orbit.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Following his re-election in 1864, he sought to heal the war-torn nation through Reconstruction.</t>
+          <t>The Earth is tilted at an angle of 23.44° to the plane of its orbit, causing different latitudes to directly face the Sun as the Earth moves through its orbit.</t>
         </is>
       </c>
     </row>
@@ -1455,22 +1455,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mlitary</t>
+          <t>pople</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>military</t>
+          <t>people</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Similarly, military sanctions can range from carefully targeted mlitary strikes to degrade a nation's conventional or non-conventional capabilities, to the less aggressive form of an arms embargo to cut off supplies of arms or dual-use items.</t>
+          <t>To date, sixty-six pople have served in this position.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Similarly, military sanctions can range from carefully targeted military strikes to degrade a nation's conventional or non-conventional capabilities, to the less aggressive form of an arms embargo to cut off supplies of arms or dual-use items.</t>
+          <t>To date, sixty-six people have served in this position.</t>
         </is>
       </c>
     </row>
@@ -1482,22 +1482,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>limitd</t>
+          <t>sries</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>limited</t>
+          <t>series</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>The office was limitd to men until the 1937 Constitution.</t>
+          <t>Since 1981, the Security Council has voted in secret in a sries of straw polls; it then submits the winning candidate to the General Assembly for ratification.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>The office was limited to men until the 1937 Constitution.</t>
+          <t>Since 1981, the Security Council has voted in secret in a series of straw polls; it then submits the winning candidate to the General Assembly for ratification.</t>
         </is>
       </c>
     </row>
@@ -1509,22 +1509,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ever</t>
+          <t>untl</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>every</t>
+          <t>until</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Almost ever kind of product can be found in the international market, for example: food, clothes, spare parts, oil, jewellery, wine, stocks, currencies, and water.</t>
+          <t>Brazil remained a colony untl 1815, when it was elevated to the rank of a united kingdom with Portugal after the transfer of the Portuguese court to Rio de Janeiro.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Almost every kind of product can be found in the international market, for example: food, clothes, spare parts, oil, jewellery, wine, stocks, currencies, and water.</t>
+          <t>Brazil remained a colony until 1815, when it was elevated to the rank of a united kingdom with Portugal after the transfer of the Portuguese court to Rio de Janeiro.</t>
         </is>
       </c>
     </row>
@@ -1536,22 +1536,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>approximatey</t>
+          <t>theorsts</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>approximately</t>
+          <t>theorists</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>In the history of Europe, the Middle Ages or medieval period lasted approximatey from the 5th to the late 15th centuries, comparable with the post-classical period of global history.</t>
+          <t>Some theorsts categorize history as a social science, while others see it as part of the humanities or consider it a hybrid discipline.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>In the history of Europe, the Middle Ages or medieval period lasted approximately from the 5th to the late 15th centuries, comparable with the post-classical period of global history.</t>
+          <t>Some theorists categorize history as a social science, while others see it as part of the humanities or consider it a hybrid discipline.</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>anayzes</t>
+          <t>scial</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>analyzes</t>
+          <t>social</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>The contemporary field of international relations, however, anayzes the connections existing between sovereign nation-states.</t>
+          <t>Some psychologists attempt to understand the role of mental functions in individual and scial behavior.</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The contemporary field of international relations, however, analyzes the connections existing between sovereign nation-states.</t>
+          <t>Some psychologists attempt to understand the role of mental functions in individual and social behavior.</t>
         </is>
       </c>
     </row>
@@ -1590,22 +1590,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>centr</t>
+          <t>prty</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>center</t>
+          <t>party</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The hotel became internationally known and was the centr of the civic and social life and home of movie stars for many years.</t>
+          <t>The 2002 elections saw every prty represented in the previous parliament ejected from the chamber and parties representing 46.3% of the voter turnout were excluded from being represented in parliament.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>The hotel became internationally known and was the center of the civic and social life and home of movie stars for many years.</t>
+          <t>The 2002 elections saw every party represented in the previous parliament ejected from the chamber and parties representing 46.3% of the voter turnout were excluded from being represented in parliament.</t>
         </is>
       </c>
     </row>
@@ -1617,22 +1617,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>fina</t>
+          <t>Wilke</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>final</t>
+          <t>Wilkes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>He composed the Missa solemnis between 1819 and 1823 and his fina Symphony, No.</t>
+          <t>On April 14, 1865, five days after the Confederate surrender at Appomattox, Lincoln was attending a play at Ford's Theatre in Washington, D.C., when he was fatally shot by John Wilke Booth, a Confederate sympathizer.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>He composed the Missa solemnis between 1819 and 1823 and his final Symphony, No.</t>
+          <t>On April 14, 1865, five days after the Confederate surrender at Appomattox, Lincoln was attending a play at Ford's Theatre in Washington, D.C., when he was fatally shot by John Wilkes Booth, a Confederate sympathizer.</t>
         </is>
       </c>
     </row>
@@ -1644,22 +1644,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>broa</t>
+          <t>pooest</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>broad</t>
+          <t>poorest</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>History is a broa discipline encompassing many branches.</t>
+          <t>The IBRD and IDA provide loans at preferential rates to member countries, as well as grants to the pooest countries.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>History is a broad discipline encompassing many branches.</t>
+          <t>The IBRD and IDA provide loans at preferential rates to member countries, as well as grants to the poorest countries.</t>
         </is>
       </c>
     </row>
@@ -1671,22 +1671,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>stuy</t>
+          <t>argest</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>largest</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Psychology is the scientific stuy of the mind and behavior.</t>
+          <t>Often described as a Big Tech company, Microsoft is the argest software company by revenue, one of the most valuable public companies, and one of the most valuable brands globally.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Psychology is the scientific study of the mind and behavior.</t>
+          <t>Often described as a Big Tech company, Microsoft is the largest software company by revenue, one of the most valuable public companies, and one of the most valuable brands globally.</t>
         </is>
       </c>
     </row>
@@ -1698,22 +1698,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Satendra</t>
+          <t>centrl</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Satyendra</t>
+          <t>central</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>With physicist Satendra Nath Bose, he laid the groundwork for Bose–Einstein statistics.</t>
+          <t>Although the Republic of Turkey established its capital in Ankara, palaces and imperial mosques still line Istanbul's hills as visible reminders of the city's previous centrl role.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>With physicist Satyendra Nath Bose, he laid the groundwork for Bose–Einstein statistics.</t>
+          <t>Although the Republic of Turkey established its capital in Ankara, palaces and imperial mosques still line Istanbul's hills as visible reminders of the city's previous central role.</t>
         </is>
       </c>
     </row>
@@ -1725,22 +1725,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ebeneer</t>
+          <t>sugget</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ebenezer</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Alberta's father, Adam Daniel Williams, was a minister in rural Georgia, moved to Atlanta in 1893, and became pastor of the Ebeneer Baptist Church in the following year.</t>
+          <t>Scientists on Earth have timely access to the data and can sugget experimental modifications to the crew.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Alberta's father, Adam Daniel Williams, was a minister in rural Georgia, moved to Atlanta in 1893, and became pastor of the Ebenezer Baptist Church in the following year.</t>
+          <t>Scientists on Earth have timely access to the data and can suggest experimental modifications to the crew.</t>
         </is>
       </c>
     </row>
@@ -1752,22 +1752,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>uder</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>periods</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Thereafter, period of civil war and Seljuk incursion resulted in the loss of most of Asia Minor.</t>
+          <t>NASA also proceeded to absorb the Naval Research Laboratory's Project Vanguard, the Army's Jet Propulsion Laboratory (JPL), and the Army Ballistic Missile Agency uder Wernher von Braun.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Thereafter, periods of civil war and Seljuk incursion resulted in the loss of most of Asia Minor.</t>
+          <t>NASA also proceeded to absorb the Naval Research Laboratory's Project Vanguard, the Army's Jet Propulsion Laboratory (JPL), and the Army Ballistic Missile Agency under Wernher von Braun.</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sort</t>
+          <t>ofice</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sport</t>
+          <t>office</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sort sanctions – preventing one country's people and teams from competing in international events.</t>
+          <t>The ofice of the president is considered to be revolutionary, in the sense that the powers of office are derived from the Revolutionary Constitution of 1917.</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sport sanctions – preventing one country's people and teams from competing in international events.</t>
+          <t>The office of the president is considered to be revolutionary, in the sense that the powers of office are derived from the Revolutionary Constitution of 1917.</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Februar</t>
+          <t>recognize</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>February</t>
+          <t>recognizes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>It operated until Februar 29, 2024.</t>
+          <t>Earth science generally recognize four spheres, the lithosphere, the hydrosphere, the atmosphere and the biosphere as correspondent to rocks, water, air and life respectively.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>It operated until February 29, 2024.</t>
+          <t>Earth science generally recognizes four spheres, the lithosphere, the hydrosphere, the atmosphere and the biosphere as correspondent to rocks, water, air and life respectively.</t>
         </is>
       </c>
     </row>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Constantinope</t>
+          <t>federatve</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Constantinople</t>
+          <t>federative</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>By the early 15th century, the Byzantine Empire was reduced to just Constantinope and its environs, along with the territories of the despotate of Morea, in Peloponnese, Greece, making it an enclave inside the Ottoman Empire.</t>
+          <t>Locke believed that the legislative power was supreme over the executive and federatve powers, which are subordinate.</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>By the early 15th century, the Byzantine Empire was reduced to just Constantinople and its environs, along with the territories of the despotate of Morea, in Peloponnese, Greece, making it an enclave inside the Ottoman Empire.</t>
+          <t>Locke believed that the legislative power was supreme over the executive and federative powers, which are subordinate.</t>
         </is>
       </c>
     </row>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>forme</t>
+          <t>recor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>formed</t>
+          <t>record</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>In the Principia, Newton formulated the laws of motion and universal gravitation that forme the dominant scientific viewpoint for centuries until it was superseded by the theory of relativity.</t>
+          <t>Many climate change impacts have been observed in the first decades of the 21st century, with 2024 the warmest on recor at +1.60 °C (2.88 °F) since regular tracking began in 1850.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>In the Principia, Newton formulated the laws of motion and universal gravitation that formed the dominant scientific viewpoint for centuries until it was superseded by the theory of relativity.</t>
+          <t>Many climate change impacts have been observed in the first decades of the 21st century, with 2024 the warmest on record at +1.60 °C (2.88 °F) since regular tracking began in 1850.</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>rans</t>
+          <t>Portugues</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ranks</t>
+          <t>Portuguese</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>A developed country with an advanced economy, the UK rans amongst the largest economies by nominal GDP and is one of the world's largest exporters and importers.</t>
+          <t>Brazil has the most Portugues speakers in the world and is the only country in the Americas where Portuguese is an official language.</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A developed country with an advanced economy, the UK ranks amongst the largest economies by nominal GDP and is one of the world's largest exporters and importers.</t>
+          <t>Brazil has the most Portuguese speakers in the world and is the only country in the Americas where Portuguese is an official language.</t>
         </is>
       </c>
     </row>
@@ -1914,22 +1914,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>aras</t>
+          <t>trritory</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>areas</t>
+          <t>territory</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>These major disciplines use physics, chemistry, biology, chronology and mathematics to build a qualitative and quantitative understanding of the principal aras or spheres of Earth.</t>
+          <t>The trritory was claimed and settled by Portugal, which imported enslaved Africans to work on plantations.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>These major disciplines use physics, chemistry, biology, chronology and mathematics to build a qualitative and quantitative understanding of the principal areas or spheres of Earth.</t>
+          <t>The territory was claimed and settled by Portugal, which imported enslaved Africans to work on plantations.</t>
         </is>
       </c>
     </row>
@@ -1941,22 +1941,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>issud</t>
+          <t>mitated</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>issued</t>
+          <t>imitated</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Truman issud an executive order abolishing discrimination in the armed forces.</t>
+          <t>Early researchers developed algorithms that mitated step-by-step reasoning that humans use when they solve puzzles or make logical deductions.</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Truman issued an executive order abolishing discrimination in the armed forces.</t>
+          <t>Early researchers developed algorithms that imitated step-by-step reasoning that humans use when they solve puzzles or make logical deductions.</t>
         </is>
       </c>
     </row>
@@ -1968,22 +1968,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Thee</t>
+          <t>bega</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>These</t>
+          <t>began</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Thee are normally performed by a pediatrician, family practice physician, a physical therapist, physician assistant, a certified nurse practitioner or other primary care provider.</t>
+          <t>However, following Walt Disney's death in 1966, the company's profits, especially in the animation sector, bega to decline.</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>These are normally performed by a pediatrician, family practice physician, a physical therapist, physician assistant, a certified nurse practitioner or other primary care provider.</t>
+          <t>However, following Walt Disney's death in 1966, the company's profits, especially in the animation sector, began to decline.</t>
         </is>
       </c>
     </row>
@@ -1995,22 +1995,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>refered</t>
+          <t>nois</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>referred</t>
+          <t>noise</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Emergency measures must be refered to the National Assembly for concurrence.</t>
+          <t>Treats is the debut studio album by the American nois pop duo Sleigh Bells, consisting of the vocalist Alexis Krauss and the producer-guitarist Derek Miller.</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Emergency measures must be referred to the National Assembly for concurrence.</t>
+          <t>Treats is the debut studio album by the American noise pop duo Sleigh Bells, consisting of the vocalist Alexis Krauss and the producer-guitarist Derek Miller.</t>
         </is>
       </c>
     </row>
@@ -2022,22 +2022,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>compny</t>
+          <t>informlly</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>informally</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Senior management, executive management, or upper management is an occupation at the highest level of management of an organization, performed by individuals who have the day-to-day tasks of managing the organization, sometimes a compny or a corporation.</t>
+          <t>Gaziantep, historically Aintab and still informlly called Antep, is a major city in south-central Turkey.</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Senior management, executive management, or upper management is an occupation at the highest level of management of an organization, performed by individuals who have the day-to-day tasks of managing the organization, sometimes a company or a corporation.</t>
+          <t>Gaziantep, historically Aintab and still informally called Antep, is a major city in south-central Turkey.</t>
         </is>
       </c>
     </row>
@@ -2049,22 +2049,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>reation</t>
+          <t>unde</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>reaction</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>From this foundation, the modern human rights arguments emerged over the latter half of the 20th century, possibly as a reation to slavery, torture, genocide, and war crimes.</t>
+          <t>In 1461 it came unde Ottoman rule.</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>From this foundation, the modern human rights arguments emerged over the latter half of the 20th century, possibly as a reaction to slavery, torture, genocide, and war crimes.</t>
+          <t>In 1461 it came under Ottoman rule.</t>
         </is>
       </c>
     </row>
@@ -2076,22 +2076,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>beond</t>
+          <t>scop</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>beyond</t>
+          <t>scope</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Since its purchase by Google, YouTube has expanded beond the core website, creating mobile apps, network television, games, and the ability to link with other platforms.</t>
+          <t>It provides an interdisciplinary perspective and studies the scop and fundamental concepts of these fields.</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Since its purchase by Google, YouTube has expanded beyond the core website, creating mobile apps, network television, games, and the ability to link with other platforms.</t>
+          <t>It provides an interdisciplinary perspective and studies the scope and fundamental concepts of these fields.</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cmpany</t>
+          <t>staes</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>states</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>In 1955, the businessman Ray Kroc joined McDonald's as a franchise agent; he bought the cmpany in 1961.</t>
+          <t>His victory prompted a majority of the slave staes to begin to secede and form the Confederate States.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>In 1955, the businessman Ray Kroc joined McDonald's as a franchise agent; he bought the company in 1961.</t>
+          <t>His victory prompted a majority of the slave states to begin to secede and form the Confederate States.</t>
         </is>
       </c>
     </row>
@@ -2130,22 +2130,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>trget</t>
+          <t>includng</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>including</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>These decisions principally include the temporary imposition on a trget of economic, trade, diplomatic, cultural or other restrictions (sanctions measures).</t>
+          <t>It can be attributed to a series of factors, includng the reduction of barriers to international trade, the liberalization of capital movements, the development of transportation infrastructure, and the advancement of information and communication technologies.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>These decisions principally include the temporary imposition on a target of economic, trade, diplomatic, cultural or other restrictions (sanctions measures).</t>
+          <t>It can be attributed to a series of factors, including the reduction of barriers to international trade, the liberalization of capital movements, the development of transportation infrastructure, and the advancement of information and communication technologies.</t>
         </is>
       </c>
     </row>
@@ -2157,22 +2157,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>nothern</t>
+          <t>tril</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>northern</t>
+          <t>trial</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hurrian language was used in nothern Syria.</t>
+          <t>Tools were initially developed by hominids through observation and tril and error.</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Hurrian language was used in northern Syria.</t>
+          <t>Tools were initially developed by hominids through observation and trial and error.</t>
         </is>
       </c>
     </row>
@@ -2184,22 +2184,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>taching</t>
+          <t>clculate</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>calculate</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Postgraduate taching is provided in a predominantly centralised fashion.</t>
+          <t>He was also the first to clculate the age of Earth by experiment, and described a precursor to the modern wind tunnel.</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Postgraduate teaching is provided in a predominantly centralised fashion.</t>
+          <t>He was also the first to calculate the age of Earth by experiment, and described a precursor to the modern wind tunnel.</t>
         </is>
       </c>
     </row>
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>aparthed</t>
+          <t>disllusioned</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>apartheid</t>
+          <t>disillusioned</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Along with Thabo Mbeki, the last aparthed president, F.</t>
+          <t>Many architects became disllusioned with modernism which they perceived as ahistorical and anti-aesthetic, and postmodern and contemporary architecture developed.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Along with Thabo Mbeki, the last apartheid president, F.</t>
+          <t>Many architects became disillusioned with modernism which they perceived as ahistorical and anti-aesthetic, and postmodern and contemporary architecture developed.</t>
         </is>
       </c>
     </row>
@@ -2238,22 +2238,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>adut</t>
+          <t>anther</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>another</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>In 1867 Germany (the North German Confederation) enacted suffrage for all adut males.</t>
+          <t>Athenian democratic elections, where all citizens could hold public office, were not introduced for anther 247 years, until the reforms of Cleisthenes.</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>In 1867 Germany (the North German Confederation) enacted suffrage for all adult males.</t>
+          <t>Athenian democratic elections, where all citizens could hold public office, were not introduced for another 247 years, until the reforms of Cleisthenes.</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2265,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>retrea</t>
+          <t>spech</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>retreat</t>
+          <t>speech</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Amplified warming in the Arctic has contributed to thawing permafrost, retrea of glaciers and sea ice decline.</t>
+          <t>Freedom of spech was vindicated by Erasmus and Milton.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Amplified warming in the Arctic has contributed to thawing permafrost, retreat of glaciers and sea ice decline.</t>
+          <t>Freedom of speech was vindicated by Erasmus and Milton.</t>
         </is>
       </c>
     </row>
@@ -2292,22 +2292,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hrase</t>
+          <t>nvestigation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>phrase</t>
+          <t>Investigation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>To describe non-monarchical states, writers (most importantly, Leonardo Bruni) adopted the Latin hrase res publica.</t>
+          <t>Federal Bureau of nvestigation (FBI) director J.</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>To describe non-monarchical states, writers (most importantly, Leonardo Bruni) adopted the Latin phrase res publica.</t>
+          <t>Federal Bureau of Investigation (FBI) director J.</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>igration</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>migration</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>For instance, the origin of the survey can be traced back to at east the Domesday Book in 1086, while ancient philosophers such as Confucius wrote about the importance of social roles.</t>
+          <t>Human igration and conflict can also be a result.</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>For instance, the origin of the survey can be traced back to at least the Domesday Book in 1086, while ancient philosophers such as Confucius wrote about the importance of social roles.</t>
+          <t>Human migration and conflict can also be a result.</t>
         </is>
       </c>
     </row>
@@ -2346,22 +2346,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>socil</t>
+          <t>conservaives</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>conservatives</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>As socil scientists, psychologists aim to understand the behavior of individuals and groups.</t>
+          <t>Under this definition, conservaives are seen as defending the established institutions of their time.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>As social scientists, psychologists aim to understand the behavior of individuals and groups.</t>
+          <t>Under this definition, conservatives are seen as defending the established institutions of their time.</t>
         </is>
       </c>
     </row>
@@ -2373,22 +2373,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rote</t>
+          <t>Socieies</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>wrote</t>
+          <t>Societies</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>In the last phase of his life he rote tragicomedies (also known as romances) such as The Winter's Tale and The Tempest, and collaborated with other playwrights.</t>
+          <t>Socieies and ecosystems will experience more severe risks without action to limit warming.</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>In the last phase of his life he wrote tragicomedies (also known as romances) such as The Winter's Tale and The Tempest, and collaborated with other playwrights.</t>
+          <t>Societies and ecosystems will experience more severe risks without action to limit warming.</t>
         </is>
       </c>
     </row>
@@ -2400,22 +2400,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>eter</t>
+          <t>xtent</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Peter</t>
+          <t>extent</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>In 1992 he placed second behind eter Antonie in the heavyweight single sculls Australian championship.</t>
+          <t>Thus, international trade is mostly restricted to trade in goods and services, and only to a lesser xtent to trade in capital, labour, or other factors of production.</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>In 1992 he placed second behind Peter Antonie in the heavyweight single sculls Australian championship.</t>
+          <t>Thus, international trade is mostly restricted to trade in goods and services, and only to a lesser extent to trade in capital, labour, or other factors of production.</t>
         </is>
       </c>
     </row>
@@ -2427,22 +2427,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>possibilit</t>
+          <t>arhitecture</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>possibility</t>
+          <t>architecture</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The possibilit of reelection was established by the 16th Amendment to the Constitution, in 1997.</t>
+          <t>Indian and Chinese arhitecture influenced forms all over Asia and Buddhist architecture in particular took diverse local flavors.</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>The possibility of reelection was established by the 16th Amendment to the Constitution, in 1997.</t>
+          <t>Indian and Chinese architecture influenced forms all over Asia and Buddhist architecture in particular took diverse local flavors.</t>
         </is>
       </c>
     </row>
@@ -2454,22 +2454,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Portguese</t>
+          <t>assemby</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Portuguese</t>
+          <t>assembly</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>European contact began in 1500 AD with the Portguese Empire, and effective colonisation of Kenya began in the 19th century during the European exploration of Africa.</t>
+          <t>The Athenian assemby (ἐκκλησία, ekklesia) was the most important institution, and every free male citizen could take part in the discussions.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>European contact began in 1500 AD with the Portuguese Empire, and effective colonisation of Kenya began in the 19th century during the European exploration of Africa.</t>
+          <t>The Athenian assembly (ἐκκλησία, ekklesia) was the most important institution, and every free male citizen could take part in the discussions.</t>
         </is>
       </c>
     </row>
@@ -2481,22 +2481,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>maaging</t>
+          <t>exhange</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>managing</t>
+          <t>exchange</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>All of the colleges are self-governing institutions within the university, maaging their own personnel and policies, and all students are required to have a college affiliation within the university.</t>
+          <t>According to North, they are critical determinants of economic performance, having profound effects on the costs of exhange and production.</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>All of the colleges are self-governing institutions within the university, managing their own personnel and policies, and all students are required to have a college affiliation within the university.</t>
+          <t>According to North, they are critical determinants of economic performance, having profound effects on the costs of exchange and production.</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cntinuous</t>
+          <t>ntalya</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>continuous</t>
+          <t>Antalya</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Founded in 1209, the University of Cambridge is the world's third-oldest university in cntinuous operation.</t>
+          <t>Antalya is one of the largest cities in Turkey and the capital of ntalya Province, the fifth-most populous province.</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Founded in 1209, the University of Cambridge is the world's third-oldest university in continuous operation.</t>
+          <t>Antalya is one of the largest cities in Turkey and the capital of Antalya Province, the fifth-most populous province.</t>
         </is>
       </c>
     </row>
@@ -2535,22 +2535,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>atient</t>
+          <t>economc</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>patient</t>
+          <t>economic</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The effects of annual check-ups on overall costs, atient disability and mortality, disease detection, and intermediate end points such a blood pressure or cholesterol, are inconclusive.</t>
+          <t>His tenure consisted of economc recovery from the economic crisis of 2001, the start of EU membership negotiations, and the reduction of military influence on politics.</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The effects of annual check-ups on overall costs, patient disability and mortality, disease detection, and intermediate end points such a blood pressure or cholesterol, are inconclusive.</t>
+          <t>His tenure consisted of economic recovery from the economic crisis of 2001, the start of EU membership negotiations, and the reduction of military influence on politics.</t>
         </is>
       </c>
     </row>
@@ -2562,22 +2562,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pread</t>
+          <t>maor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>spread</t>
+          <t>major</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>With the Turkic expansion during Early Middle Ages (c. 6th–11th centuries), peoples speaking Turkic languages pread across Central Asia, covering a vast geographical region stretching from Siberia all the way to Europe and the Mediterranean.</t>
+          <t>The second-largest and oldest city is Mombasa, a maor port city located on Mombasa Island.</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>With the Turkic expansion during Early Middle Ages (c. 6th–11th centuries), peoples speaking Turkic languages spread across Central Asia, covering a vast geographical region stretching from Siberia all the way to Europe and the Mediterranean.</t>
+          <t>The second-largest and oldest city is Mombasa, a major port city located on Mombasa Island.</t>
         </is>
       </c>
     </row>
@@ -2589,22 +2589,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>hree</t>
+          <t>Aenue</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>Avenue</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Since then, Brazil has had six constitutions, three dictatorships, and hree democratic periods.</t>
+          <t>A single-track streetcar line ran down the middle of Prospect Aenue from it, but service was infrequent and the trip took two hours.</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Since then, Brazil has had six constitutions, three dictatorships, and three democratic periods.</t>
+          <t>A single-track streetcar line ran down the middle of Prospect Avenue from it, but service was infrequent and the trip took two hours.</t>
         </is>
       </c>
     </row>
@@ -2616,22 +2616,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>wdely</t>
+          <t>egal</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>widely</t>
+          <t>legal</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Alternatives such as "oral forms" and "oral genres" have been suggested, but the word literature is wdely used.</t>
+          <t>Beyond egal definitions, several non-governmental organizations use other criteria to judge the level of press freedom worldwide.</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Alternatives such as "oral forms" and "oral genres" have been suggested, but the word literature is widely used.</t>
+          <t>Beyond legal definitions, several non-governmental organizations use other criteria to judge the level of press freedom worldwide.</t>
         </is>
       </c>
     </row>
@@ -2643,22 +2643,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>Thao</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>grants</t>
+          <t>Thabo</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Federalism grant substantial autonomy to the 50 states.</t>
+          <t>Along with Thao Mbeki, the last apartheid president, F.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Federalism grants substantial autonomy to the 50 states.</t>
+          <t>Along with Thabo Mbeki, the last apartheid president, F.</t>
         </is>
       </c>
     </row>
@@ -2670,22 +2670,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>cactu</t>
+          <t>Coex</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>cactus</t>
+          <t>Codex</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>The city name Adama may have been derived from the Oromo word adaamii, which means a cactu or a cactus-like tree.</t>
+          <t>Hammurabi placed several copies of his law code throughout the kingdom of Babylon as stelae, for the entire public to see; this became known as the Coex Hammurabi.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>The city name Adama may have been derived from the Oromo word adaamii, which means a cactus or a cactus-like tree.</t>
+          <t>Hammurabi placed several copies of his law code throughout the kingdom of Babylon as stelae, for the entire public to see; this became known as the Codex Hammurabi.</t>
         </is>
       </c>
     </row>
@@ -2697,22 +2697,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>whic</t>
+          <t>inclue</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>which</t>
+          <t>include</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>It is predated in use by the Ancient Greek word τέχνη (tékhnē), used to mean 'knowledge of how to make things', whic encompassed activities like architecture.</t>
+          <t>Some more advanced tests inclue ultrasound and mammography.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>It is predated in use by the Ancient Greek word τέχνη (tékhnē), used to mean 'knowledge of how to make things', which encompassed activities like architecture.</t>
+          <t>Some more advanced tests include ultrasound and mammography.</t>
         </is>
       </c>
     </row>
@@ -2724,22 +2724,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kurs</t>
+          <t>Ntional</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Kurds</t>
+          <t>National</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Most Turkish citizens in Istanbul are ethnic Turks, while ethnic Kurs are the largest ethnic minority.</t>
+          <t>The president is required to be a member of the Ntional Assembly at the time of the election.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Most Turkish citizens in Istanbul are ethnic Turks, while ethnic Kurds are the largest ethnic minority.</t>
+          <t>The president is required to be a member of the National Assembly at the time of the election.</t>
         </is>
       </c>
     </row>
@@ -2751,22 +2751,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hakespeare</t>
+          <t>dismntling</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Shakespeare</t>
+          <t>dismantling</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>This date, which can be traced to William Oldys and George Steevens, has proved appealing to biographers because hakespeare died on the same date in 1616.</t>
+          <t>His administration focused on dismntling the legacy of apartheid by fostering racial reconciliation, a national peace accord and eventual multiracial democracy.</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This date, which can be traced to William Oldys and George Steevens, has proved appealing to biographers because Shakespeare died on the same date in 1616.</t>
+          <t>His administration focused on dismantling the legacy of apartheid by fostering racial reconciliation, a national peace accord and eventual multiracial democracy.</t>
         </is>
       </c>
     </row>
@@ -2778,22 +2778,22 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ideo</t>
+          <t>woking</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>working</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Hurley and Chen said that the original idea for YouTube was a ideo version of an online dating service and had been influenced by the website Hot or Not.</t>
+          <t>He studied law at the University of Fort Hare and the University of Witwatersrand before woking as a lawyer in Johannesburg.</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hurley and Chen said that the original idea for YouTube was a video version of an online dating service and had been influenced by the website Hot or Not.</t>
+          <t>He studied law at the University of Fort Hare and the University of Witwatersrand before working as a lawyer in Johannesburg.</t>
         </is>
       </c>
     </row>
@@ -2805,22 +2805,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>etire</t>
+          <t>amng</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>entire</t>
+          <t>among</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Be a resident of Mexico for the etire year prior to the election (although absences of 30 days or fewer are explicitly stated not to interrupt residency).</t>
+          <t>It is amng the top 100 science and technology clusters in the world.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Be a resident of Mexico for the entire year prior to the election (although absences of 30 days or fewer are explicitly stated not to interrupt residency).</t>
+          <t>It is among the top 100 science and technology clusters in the world.</t>
         </is>
       </c>
     </row>
@@ -2832,22 +2832,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>omes</t>
+          <t>tured</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>comes</t>
+          <t>turned</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The name omes from Ancient Greek γῆ (gê) 'earth' and λoγία (-logía) 'study of, discourse'.</t>
+          <t>He tured to religion and spent time as a missionary in southern Belgium.</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>The name comes from Ancient Greek γῆ (gê) 'earth' and λoγία (-logía) 'study of, discourse'.</t>
+          <t>He turned to religion and spent time as a missionary in southern Belgium.</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kooi</t>
+          <t>Hastins</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Koobi</t>
+          <t>Hastings</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ample fossil evidence for this evolutionary history has been found at Kooi Fora.</t>
+          <t>Randolph and Hastins met with Jeff Bezos, whose Amazon offered to acquire Netflix for between $14 and $16 million.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ample fossil evidence for this evolutionary history has been found at Koobi Fora.</t>
+          <t>Randolph and Hastings met with Jeff Bezos, whose Amazon offered to acquire Netflix for between $14 and $16 million.</t>
         </is>
       </c>
     </row>
@@ -2886,22 +2886,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>purpse</t>
+          <t>candiate</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>candidate</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>The term is generally not meant to include visits for the purpse of newborn checks, Pap smears for cervical cancer, or regular visits for people with certain chronic medical disorders (for example, diabetes).</t>
+          <t>No candidate has ever been rejected by the General Assembly, and only once, in 1950, has a candiate been voted upon despite a UNSC veto.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>The term is generally not meant to include visits for the purpose of newborn checks, Pap smears for cervical cancer, or regular visits for people with certain chronic medical disorders (for example, diabetes).</t>
+          <t>No candidate has ever been rejected by the General Assembly, and only once, in 1950, has a candidate been voted upon despite a UNSC veto.</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Acaemy</t>
+          <t>urrent</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Academy</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Finally, Late Antiquity refers to the period of Christianization during the later 4th to early 6th centuries AD, consummated by the closure of the Acaemy of Athens by Justinian I in 529.</t>
+          <t>Imports and exports are accounted for in a country's urrent account in the balance of payments.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Finally, Late Antiquity refers to the period of Christianization during the later 4th to early 6th centuries AD, consummated by the closure of the Academy of Athens by Justinian I in 529.</t>
+          <t>Imports and exports are accounted for in a country's current account in the balance of payments.</t>
         </is>
       </c>
     </row>
@@ -2940,22 +2940,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Reublic</t>
+          <t>owing</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Republic</t>
+          <t>Rowing</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Kenya, officially the Reublic of Kenya, is a country located in East Africa.</t>
+          <t>He won that same title at Australian owing Championships in 1993 and 1994.</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Kenya, officially the Republic of Kenya, is a country located in East Africa.</t>
+          <t>He won that same title at Australian Rowing Championships in 1993 and 1994.</t>
         </is>
       </c>
     </row>
@@ -2967,22 +2967,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Middl</t>
+          <t>Roosevel</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Middle</t>
+          <t>Roosevelt</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>During the High Middl Ages, which began after 1000, the population of Europe increased significantly as technological and agricultural innovations allowed trade to flourish and the Medieval Warm Period climate change allowed crop yields to increase.</t>
+          <t>Following the Japanese attack on Pearl Harbor on December 7, 1941, Roosevel obtained a declaration of war on Japan, and subsequently on Japan's Axis partners, Nazi Germany and Fascist Italy.</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>During the High Middle Ages, which began after 1000, the population of Europe increased significantly as technological and agricultural innovations allowed trade to flourish and the Medieval Warm Period climate change allowed crop yields to increase.</t>
+          <t>Following the Japanese attack on Pearl Harbor on December 7, 1941, Roosevelt obtained a declaration of war on Japan, and subsequently on Japan's Axis partners, Nazi Germany and Fascist Italy.</t>
         </is>
       </c>
     </row>
@@ -2994,22 +2994,22 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>condct</t>
+          <t>investiate</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>conduct</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>It proscribes condct perceived as threatening, harmful, or otherwise endangering to the property, health, safety, and welfare of people inclusive of one's self.</t>
+          <t>Darwin's early interest in nature led him to neglect his medical education at the University of Edinburgh; instead, he helped Robert Edmond Grant to investiate marine invertebrates.</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>It proscribes conduct perceived as threatening, harmful, or otherwise endangering to the property, health, safety, and welfare of people inclusive of one's self.</t>
+          <t>Darwin's early interest in nature led him to neglect his medical education at the University of Edinburgh; instead, he helped Robert Edmond Grant to investigate marine invertebrates.</t>
         </is>
       </c>
     </row>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>estat</t>
+          <t>cctus</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>estate</t>
+          <t>cactus</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Whitley, a real estat developer, arranged to buy the 480-acre (1.9 km2) E.C.</t>
+          <t>The city name Adama may have been derived from the Oromo word adaamii, which means a cctus or a cactus-like tree.</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Whitley, a real estate developer, arranged to buy the 480-acre (1.9 km2) E.C.</t>
+          <t>The city name Adama may have been derived from the Oromo word adaamii, which means a cactus or a cactus-like tree.</t>
         </is>
       </c>
     </row>
@@ -3048,22 +3048,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Inrease</t>
+          <t>campaig</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Increase</t>
+          <t>campaign</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>From 1681 to 1701, Inrease Mather, a Puritan clergyman, served as Harvard's sixth president.</t>
+          <t>In 1796, he commanded a military campaig against the Austrians and their Italian allies in the War of the First Coalition, scoring decisive victories and becoming a national hero.</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>From 1681 to 1701, Increase Mather, a Puritan clergyman, served as Harvard's sixth president.</t>
+          <t>In 1796, he commanded a military campaign against the Austrians and their Italian allies in the War of the First Coalition, scoring decisive victories and becoming a national hero.</t>
         </is>
       </c>
     </row>
@@ -3075,22 +3075,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>thoug</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>years</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Alchemy is often associated with the quest to turn lead or other base metals into gold, thoug alchemists were also interested in many of the questions of modern chemistry.</t>
+          <t>In the year since, it has expanded internationally.</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Alchemy is often associated with the quest to turn lead or other base metals into gold, though alchemists were also interested in many of the questions of modern chemistry.</t>
+          <t>In the years since, it has expanded internationally.</t>
         </is>
       </c>
     </row>
@@ -3102,22 +3102,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Amazo</t>
+          <t>director</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>directors</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Randolph and Hastings met with Jeff Bezos, whose Amazo offered to acquire Netflix for between $14 and $16 million.</t>
+          <t>Executive managers hold executive powers delegated to them with and by authority of a board of director and/or the shareholders.</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Randolph and Hastings met with Jeff Bezos, whose Amazon offered to acquire Netflix for between $14 and $16 million.</t>
+          <t>Executive managers hold executive powers delegated to them with and by authority of a board of directors and/or the shareholders.</t>
         </is>
       </c>
     </row>
@@ -3129,22 +3129,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ounger</t>
+          <t>hough</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>though</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>His ounger brother, Theo, supported him financially, and the two of them maintained a long correspondence.</t>
+          <t>The terms "philosophy of law" and "jurisprudence" are often used interchangeably, hough jurisprudence sometimes encompasses forms of reasoning that fit into economics or sociology.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>His younger brother, Theo, supported him financially, and the two of them maintained a long correspondence.</t>
+          <t>The terms "philosophy of law" and "jurisprudence" are often used interchangeably, though jurisprudence sometimes encompasses forms of reasoning that fit into economics or sociology.</t>
         </is>
       </c>
     </row>
@@ -3156,22 +3156,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>crade</t>
+          <t>similarty</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>cradle</t>
+          <t>similarity</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ancient Athens was the crade of democracy.</t>
+          <t>Because of its similarty to trápala and trapaza, trapisonda acquired the meaning "hullabaloo, imbroglio".</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ancient Athens was the cradle of democracy.</t>
+          <t>Because of its similarity to trápala and trapaza, trapisonda acquired the meaning "hullabaloo, imbroglio".</t>
         </is>
       </c>
     </row>
@@ -3183,22 +3183,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>leal</t>
+          <t>oters</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>legal</t>
+          <t>others</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Japan was the first country to begin modernising its leal system along western lines, by importing bits of the French, but mostly the German Civil Code.</t>
+          <t>Yet oters are involved in work on human development, aging, sports, health, forensic science, education, and the media.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Japan was the first country to begin modernising its legal system along western lines, by importing bits of the French, but mostly the German Civil Code.</t>
+          <t>Yet others are involved in work on human development, aging, sports, health, forensic science, education, and the media.</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Congres</t>
+          <t>notheastern</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Congress</t>
+          <t>northeastern</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Kennedy asked Congres to pass civil rights legislation.</t>
+          <t>Trabzon is a city on the Black Sea coast of notheastern Turkey and the capital of Trabzon Province.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Kennedy asked Congress to pass civil rights legislation.</t>
+          <t>Trabzon is a city on the Black Sea coast of northeastern Turkey and the capital of Trabzon Province.</t>
         </is>
       </c>
     </row>
@@ -3237,22 +3237,22 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>betwen</t>
+          <t>aong</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>between</t>
+          <t>along</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>A civil war betwen unitarios (unitarians, i.e.</t>
+          <t>The World Bank was established aong with the International Monetary Fund at the 1944 Bretton Woods Conference.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>A civil war between unitarios (unitarians, i.e.</t>
+          <t>The World Bank was established along with the International Monetary Fund at the 1944 Bretton Woods Conference.</t>
         </is>
       </c>
     </row>
@@ -3264,22 +3264,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Knya</t>
+          <t>succesive</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>successive</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Modern-day Knya emerged from a protectorate, established by the British Empire in 1895, and the subsequent Kenya Colony, which began in 1920.</t>
+          <t>Previously, deputies and senators were barred from succesive re-election.</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Modern-day Kenya emerged from a protectorate, established by the British Empire in 1895, and the subsequent Kenya Colony, which began in 1920.</t>
+          <t>Previously, deputies and senators were barred from successive re-election.</t>
         </is>
       </c>
     </row>
@@ -3291,22 +3291,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nrth</t>
+          <t>stat</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>state</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>The 19th century saw many movements advocating "universal suffrage", most notably in Europe and Nrth America.</t>
+          <t>The development of the stat dispensing justice in a court clearly emerged in the eighteenth century when European countries began maintaining police services.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>The 19th century saw many movements advocating "universal suffrage", most notably in Europe and North America.</t>
+          <t>The development of the state dispensing justice in a court clearly emerged in the eighteenth century when European countries began maintaining police services.</t>
         </is>
       </c>
     </row>
@@ -3318,22 +3318,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>specifc</t>
+          <t>prouction</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>production</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>They are universal; that is, they apply to all people, and do not derive from the laws of any specifc society.</t>
+          <t>Another difference between domestic and international trade is that factors of prouction such as capital and labor are often more mobile within a country than across countries.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>They are universal; that is, they apply to all people, and do not derive from the laws of any specific society.</t>
+          <t>Another difference between domestic and international trade is that factors of production such as capital and labor are often more mobile within a country than across countries.</t>
         </is>
       </c>
     </row>
@@ -3345,22 +3345,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>fficial</t>
+          <t>Whitey</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>official</t>
+          <t>Whitley</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Historically, it has also referred to a charter or fficial document of diplomacy.</t>
+          <t>Having finally acquired the Hurd ranch and subdivided it, Whitey built the hotel to attract land buyers.</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Historically, it has also referred to a charter or official document of diplomacy.</t>
+          <t>Having finally acquired the Hurd ranch and subdivided it, Whitley built the hotel to attract land buyers.</t>
         </is>
       </c>
     </row>
@@ -3372,22 +3372,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>spokn</t>
+          <t>counry</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>spoken</t>
+          <t>country</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Turkish is the 18th-most spokn language in the world.</t>
+          <t>It is also the world's fifth-largest counry by area and the seventh-largest by population, with over 213 million people.</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Turkish is the 18th-most spoken language in the world.</t>
+          <t>It is also the world's fifth-largest country by area and the seventh-largest by population, with over 213 million people.</t>
         </is>
       </c>
     </row>
@@ -3399,22 +3399,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>geologica</t>
+          <t>binging</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>geological</t>
+          <t>bringing</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>The majority of geologica data comes from research on solid Earth materials.</t>
+          <t>Newton contributed to and refined the scientific method, and his work is considered the most influential in binging forth modern science.</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>The majority of geological data comes from research on solid Earth materials.</t>
+          <t>Newton contributed to and refined the scientific method, and his work is considered the most influential in bringing forth modern science.</t>
         </is>
       </c>
     </row>
@@ -3426,22 +3426,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>psycology</t>
+          <t>Stee</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>Steve</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>The word psycology derives from the Greek word psyche, for spirit or soul.</t>
+          <t>YouTube was founded by Chad Hurley, Jawed Karim, and Stee Chen.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>The word psychology derives from the Greek word psyche, for spirit or soul.</t>
+          <t>YouTube was founded by Chad Hurley, Jawed Karim, and Steve Chen.</t>
         </is>
       </c>
     </row>
@@ -3453,22 +3453,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>pofit</t>
+          <t>launced</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>profit</t>
+          <t>launched</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Interest differs from profit, in that interest is received by a lender, whereas pofit is received by the owner of an asset, investment or enterprise.</t>
+          <t>In the summer of 1812, he launced an invasion of Russia.</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Interest differs from profit, in that interest is received by a lender, whereas profit is received by the owner of an asset, investment or enterprise.</t>
+          <t>In the summer of 1812, he launched an invasion of Russia.</t>
         </is>
       </c>
     </row>
@@ -3480,22 +3480,22 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Anient</t>
+          <t>Thse</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ancient</t>
+          <t>These</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Anient Egyptian law, dating as far back as 3000 BC, was based on the concept of Ma'at, and was characterised by tradition, rhetorical speech, social equality and impartiality.</t>
+          <t>Thse decisions principally include the temporary imposition on a target of economic, trade, diplomatic, cultural or other restrictions (sanctions measures).</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ancient Egyptian law, dating as far back as 3000 BC, was based on the concept of Ma'at, and was characterised by tradition, rhetorical speech, social equality and impartiality.</t>
+          <t>These decisions principally include the temporary imposition on a target of economic, trade, diplomatic, cultural or other restrictions (sanctions measures).</t>
         </is>
       </c>
     </row>
@@ -3507,22 +3507,22 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>powr</t>
+          <t>territores</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>territories</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>The executive, legislative and judiciary powr under control by the president may cause less democracy.</t>
+          <t>The Salic law, practiced in France and in the Italian territores of the House of Savoy, stipulated that only men could inherit the crown.</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>The executive, legislative and judiciary power under control by the president may cause less democracy.</t>
+          <t>The Salic law, practiced in France and in the Italian territories of the House of Savoy, stipulated that only men could inherit the crown.</t>
         </is>
       </c>
     </row>
@@ -3534,22 +3534,22 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Universiy</t>
+          <t>soething</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>University</t>
+          <t>something</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>He studied law at the Universiy of Fort Hare and the University of Witwatersrand before working as a lawyer in Johannesburg.</t>
+          <t>According to Paracelsus's terminology, chaos meant soething like 'ultra-rarefied water'.</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>He studied law at the University of Fort Hare and the University of Witwatersrand before working as a lawyer in Johannesburg.</t>
+          <t>According to Paracelsus's terminology, chaos meant something like 'ultra-rarefied water'.</t>
         </is>
       </c>
     </row>
@@ -3561,22 +3561,22 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Eropean</t>
+          <t>Spnish</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>European</t>
+          <t>Spanish</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cicero, among other Latin writers, translated politeia into Latin as res publica, and it was in turn translated by Renaissance scholars as republic (or similar terms in various Eropean languages).</t>
+          <t>Key events preceding the war included Japan's invasion of Manchuria in 1931, the Spnish Civil War, the outbreak of the Second Sino-Japanese War in 1937, and Germany's annexations of Austria and the Sudetenland.</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Cicero, among other Latin writers, translated politeia into Latin as res publica, and it was in turn translated by Renaissance scholars as republic (or similar terms in various European languages).</t>
+          <t>Key events preceding the war included Japan's invasion of Manchuria in 1931, the Spanish Civil War, the outbreak of the Second Sino-Japanese War in 1937, and Germany's annexations of Austria and the Sudetenland.</t>
         </is>
       </c>
     </row>
@@ -3588,22 +3588,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>violting</t>
+          <t>foundd</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>violating</t>
+          <t>founded</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>In 1803, the court asserted itself the power of judicial review, the ability to invalidate a statute for violting a provision of the Constitution.</t>
+          <t>One of the Cappadocian tribes he mentions is the Moschoi, associated by Flavius Josephus with the biblical figure Meshech, son of Japheth: "and the Mosocheni were foundd by Mosoch; now they are Cappadocians".</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>In 1803, the court asserted itself the power of judicial review, the ability to invalidate a statute for violating a provision of the Constitution.</t>
+          <t>One of the Cappadocian tribes he mentions is the Moschoi, associated by Flavius Josephus with the biblical figure Meshech, son of Japheth: "and the Mosocheni were founded by Mosoch; now they are Cappadocians".</t>
         </is>
       </c>
     </row>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Oxord</t>
+          <t>unicipality</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>municipality</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>The University of Oxord is a collegiate research university in Oxford, England.</t>
+          <t>The unicipality of Hollywood was consolidated with the City of Los Angeles in 1910 following a referendum.</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>The University of Oxford is a collegiate research university in Oxford, England.</t>
+          <t>The municipality of Hollywood was consolidated with the City of Los Angeles in 1910 following a referendum.</t>
         </is>
       </c>
     </row>
@@ -3642,22 +3642,22 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>permanenty</t>
+          <t>intenational</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>permanently</t>
+          <t>international</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>In 1921, an illness permanenty paralyzed his legs.</t>
+          <t>These organizations work towards the facilitation and growth of intenational trade.</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>In 1921, an illness permanently paralyzed his legs.</t>
+          <t>These organizations work towards the facilitation and growth of international trade.</t>
         </is>
       </c>
     </row>
@@ -3669,22 +3669,22 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>Egptian</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>neither</t>
+          <t>Egyptian</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Gas is a state of matter with either fixed volume nor fixed shape.</t>
+          <t>The first president of Egypt was Mohamed Naguib, who, along with Gamal Abdel Nasser, led the Egptian Revolution of 1952 that overthrew King Farouk and marked the end of British colonial rule.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Gas is a state of matter with neither fixed volume nor fixed shape.</t>
+          <t>The first president of Egypt was Mohamed Naguib, who, along with Gamal Abdel Nasser, led the Egyptian Revolution of 1952 that overthrew King Farouk and marked the end of British colonial rule.</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ignificant</t>
+          <t>strogest</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>strongest</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Technological advancements have led to ignificant changes in society.</t>
+          <t>As a nuclear state with one of the highest defence budgets, the UK maintains one of the strogest militaries in Europe.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Technological advancements have led to significant changes in society.</t>
+          <t>As a nuclear state with one of the highest defence budgets, the UK maintains one of the strongest militaries in Europe.</t>
         </is>
       </c>
     </row>
@@ -3723,22 +3723,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>hols</t>
+          <t>whih</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>holds</t>
+          <t>which</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Natural law hols that there are rational objective limits to the power of rulers, the foundations of law are accessible through reason, and it is from these laws of nature that human laws gain force.</t>
+          <t>The company has produced films whih have been featured on many lists of the greatest films of all time and is one of the key players on the development of the theme park industry.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Natural law holds that there are rational objective limits to the power of rulers, the foundations of law are accessible through reason, and it is from these laws of nature that human laws gain force.</t>
+          <t>The company has produced films which have been featured on many lists of the greatest films of all time and is one of the key players on the development of the theme park industry.</t>
         </is>
       </c>
     </row>
@@ -3750,22 +3750,22 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>eperiencing</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Along</t>
+          <t>experiencing</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>long with his work on barnacles, it won him the Royal Medal in 1853.</t>
+          <t>It expanded once more under the Macedonian dynasty, eperiencing a two-century-long renaissance.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Along with his work on barnacles, it won him the Royal Medal in 1853.</t>
+          <t>It expanded once more under the Macedonian dynasty, experiencing a two-century-long renaissance.</t>
         </is>
       </c>
     </row>
@@ -3777,22 +3777,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>encouragd</t>
+          <t>ther</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>encouraged</t>
+          <t>their</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>This document outlined a comprehensive framework of rights that countries are encouragd to protect, setting a global standard for human dignity, freedom, and justice.</t>
+          <t>The Seljuqs of the Oghuz Turks, in particular, brought ther language, Oghuz—the direct ancestor of today's Turkish language—into Anatolia during the 11th century.</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>This document outlined a comprehensive framework of rights that countries are encouraged to protect, setting a global standard for human dignity, freedom, and justice.</t>
+          <t>The Seljuqs of the Oghuz Turks, in particular, brought their language, Oghuz—the direct ancestor of today's Turkish language—into Anatolia during the 11th century.</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sace</t>
+          <t>achiving</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>space</t>
+          <t>achieving</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>It has since led most of America's sace exploration programs, including Project Mercury, Project Gemini, the 1968–1972 Apollo program missions, the Skylab space station, and the Space Shuttle.</t>
+          <t>Assuming leadership of the Indian National Congress in 1921, Gandhi led nationwide campaigns for easing poverty, expanding women's rights, building religious and ethnic amity, ending untouchability, and, above all, achiving swaraj or self-rule.</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>It has since led most of America's space exploration programs, including Project Mercury, Project Gemini, the 1968–1972 Apollo program missions, the Skylab space station, and the Space Shuttle.</t>
+          <t>Assuming leadership of the Indian National Congress in 1921, Gandhi led nationwide campaigns for easing poverty, expanding women's rights, building religious and ethnic amity, ending untouchability, and, above all, achieving swaraj or self-rule.</t>
         </is>
       </c>
     </row>
@@ -3831,22 +3831,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>prsistence</t>
+          <t>inclues</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>persistence</t>
+          <t>includes</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>All definitions of institutions generally entail that there is a level of prsistence and continuity.</t>
+          <t>His oeuvre inclues landscapes, still lifes, portraits, and self-portraits, most of which are characterised by bold colours and dramatic brushwork that contributed to the rise of expressionism in modern art.</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>All definitions of institutions generally entail that there is a level of persistence and continuity.</t>
+          <t>His oeuvre includes landscapes, still lifes, portraits, and self-portraits, most of which are characterised by bold colours and dramatic brushwork that contributed to the rise of expressionism in modern art.</t>
         </is>
       </c>
     </row>
@@ -3858,22 +3858,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>elments</t>
+          <t>fficial</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>elements</t>
+          <t>official</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The word chemistry comes from a modification during the Renaissance of the word alchemy, which referred to an earlier set of practices that encompassed elments of chemistry, metallurgy, philosophy, astrology, astronomy, mysticism, and medicine.</t>
+          <t>The lead single from Treats, "Tell 'Em", was released as a free download on April 28, 2010, via the duo's fficial website.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>The word chemistry comes from a modification during the Renaissance of the word alchemy, which referred to an earlier set of practices that encompassed elements of chemistry, metallurgy, philosophy, astrology, astronomy, mysticism, and medicine.</t>
+          <t>The lead single from Treats, "Tell 'Em", was released as a free download on April 28, 2010, via the duo's official website.</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Rounice</t>
+          <t>aout</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Roudnice</t>
+          <t>about</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>For Rounice 1993 and Indianapolis 1994 Hawkins was selected as Australia's lightweight single sculler.</t>
+          <t>The Theodosian Walls consisted of a double wall lying aout 2 kilometres (1.2 mi) to the west of the first wall and a moat with palisades in front.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>For Roudnice 1993 and Indianapolis 1994 Hawkins was selected as Australia's lightweight single sculler.</t>
+          <t>The Theodosian Walls consisted of a double wall lying about 2 kilometres (1.2 mi) to the west of the first wall and a moat with palisades in front.</t>
         </is>
       </c>
     </row>
@@ -3912,22 +3912,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>toda</t>
+          <t>currnt</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Early Muslims called this riba, translated toda as the charging of interest.</t>
+          <t>The term parliament is commonly used in countries that are currnt or former monarchies.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Early Muslims called this riba, translated today as the charging of interest.</t>
+          <t>The term parliament is commonly used in countries that are current or former monarchies.</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>arriing</t>
+          <t>Urukagin</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>arriving</t>
+          <t>Urukagina</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Indian philosophy combines the spiritual problem of how to reach enlightenment with the exploration of the nature of reality and the ways of arriing at knowledge.</t>
+          <t>Around 2100–2050 BC Ur-Nammu, the Neo-Sumerian king of Ur, enacted written legal code whose text has been discovered: the Code of Ur-Nammu although an earlier code of Urukagin of Lagash ( 2380–2360 BC ) is also known to have existed.</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Indian philosophy combines the spiritual problem of how to reach enlightenment with the exploration of the nature of reality and the ways of arriving at knowledge.</t>
+          <t>Around 2100–2050 BC Ur-Nammu, the Neo-Sumerian king of Ur, enacted written legal code whose text has been discovered: the Code of Ur-Nammu although an earlier code of Urukagina of Lagash ( 2380–2360 BC ) is also known to have existed.</t>
         </is>
       </c>
     </row>
@@ -3966,22 +3966,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Orhodox</t>
+          <t>woks</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Orthodox</t>
+          <t>works</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>The ethnic demographics of the modern Turkish Republic were significantly impacted by the earlier Armenian genocide and the deportations of Greek-speaking, Orhodox Christian Rum people.</t>
+          <t>However, in 1623 John Heminges and Henry Condell, two fellow actors and friends of Shakespeare's, published a more definitive text known as the First Folio, a posthumous collected edition of Shakespeare's dramatic woks that includes 36 of his plays.</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>The ethnic demographics of the modern Turkish Republic were significantly impacted by the earlier Armenian genocide and the deportations of Greek-speaking, Orthodox Christian Rum people.</t>
+          <t>However, in 1623 John Heminges and Henry Condell, two fellow actors and friends of Shakespeare's, published a more definitive text known as the First Folio, a posthumous collected edition of Shakespeare's dramatic works that includes 36 of his plays.</t>
         </is>
       </c>
     </row>
@@ -3993,22 +3993,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>though</t>
+          <t>tacks</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>tracks</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>The president is elected though the Electoral College to a four-year term, along with the vice president.</t>
+          <t>CPJ also tacks impunity in cases of journalist murders.</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>The president is elected through the Electoral College to a four-year term, along with the vice president.</t>
+          <t>CPJ also tracks impunity in cases of journalist murders.</t>
         </is>
       </c>
     </row>
@@ -4020,22 +4020,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>dealiest</t>
+          <t>risis</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>deadliest</t>
+          <t>crisis</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>One of the dealiest conflicts in history, it resulted in an estimated 30 million military casualties, and 8 million civilian deaths from war-related causes and genocide.</t>
+          <t>Merkel's governments managed the 2008 financial risis and the Euro area crisis.</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>One of the deadliest conflicts in history, it resulted in an estimated 30 million military casualties, and 8 million civilian deaths from war-related causes and genocide.</t>
+          <t>Merkel's governments managed the 2008 financial crisis and the Euro area crisis.</t>
         </is>
       </c>
     </row>
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Conservatsm</t>
+          <t>curent</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Conservatism</t>
+          <t>current</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Conservatsm has varied considerably as it has adapted itself to existing traditions and national cultures.</t>
+          <t>It took its curent form with the adoption of the Constitution of Japan in 1947.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Conservatism has varied considerably as it has adapted itself to existing traditions and national cultures.</t>
+          <t>It took its current form with the adoption of the Constitution of Japan in 1947.</t>
         </is>
       </c>
     </row>
@@ -4074,22 +4074,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>voed</t>
+          <t>Scintific</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>voted</t>
+          <t>Scientific</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>In May 1776, Congress voed to suppress all forms of Crown authority, to be replaced by locally created authority, and each colony created a state constitution.</t>
+          <t>He was a key figure in the Scintific Revolution and the Enlightenment that followed.</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>In May 1776, Congress voted to suppress all forms of Crown authority, to be replaced by locally created authority, and each colony created a state constitution.</t>
+          <t>He was a key figure in the Scientific Revolution and the Enlightenment that followed.</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>untl</t>
+          <t>Mesootamia</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>until</t>
+          <t>Mesopotamia</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>The office was later renamed to Minister-President of the Austrian Empire and remained from there on untl the dissolution of Austria-Hungary.</t>
+          <t>The first usage of the term came from Mesootamia circa 3000 BC.</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The office was later renamed to Minister-President of the Austrian Empire and remained from there on until the dissolution of Austria-Hungary.</t>
+          <t>The first usage of the term came from Mesopotamia circa 3000 BC.</t>
         </is>
       </c>
     </row>
@@ -4128,22 +4128,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>meaure</t>
+          <t>hether</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>measure</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>The Renaissance's intellectual basis was founded in its version of humanism, derived from the concept of Roman humanitas and the rediscovery of classical Greek philosophy, such as that of Protagoras, who said that "man is the meaure of all things".</t>
+          <t>However, there have been disputes on hether or not to classify something as a work of art, referred to as classificatory disputes about art.</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>The Renaissance's intellectual basis was founded in its version of humanism, derived from the concept of Roman humanitas and the rediscovery of classical Greek philosophy, such as that of Protagoras, who said that "man is the measure of all things".</t>
+          <t>However, there have been disputes on whether or not to classify something as a work of art, referred to as classificatory disputes about art.</t>
         </is>
       </c>
     </row>
@@ -4155,22 +4155,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>inlude</t>
+          <t>searated</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>separated</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Other technological advances made during the Paleolithic era inlude clothing and shelter.</t>
+          <t>The origins of Argentina as a nation can be traced to 1776, when it was searated by King Charles III of Spain from the existing Viceroyalty of Peru, creating the new Viceroyalty of the Río de la Plata.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Other technological advances made during the Paleolithic era include clothing and shelter.</t>
+          <t>The origins of Argentina as a nation can be traced to 1776, when it was separated by King Charles III of Spain from the existing Viceroyalty of Peru, creating the new Viceroyalty of the Río de la Plata.</t>
         </is>
       </c>
     </row>
@@ -4182,22 +4182,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Preident</t>
+          <t>npaved</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>President</t>
+          <t>unpaved</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>In 1963, about 250,000 people participated in the March on Washington, after which Preident John F.</t>
+          <t>Although it was still a dusty, npaved road, it was regularly graded and graveled.</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>In 1963, about 250,000 people participated in the March on Washington, after which President John F.</t>
+          <t>Although it was still a dusty, unpaved road, it was regularly graded and graveled.</t>
         </is>
       </c>
     </row>
@@ -4209,22 +4209,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>descibed</t>
+          <t>jined</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>joined</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>He was also the first to calculate the age of Earth by experiment, and descibed a precursor to the modern wind tunnel.</t>
+          <t>In 1774, twelve of the Thirteen Colonies sent delegates to the First Continental Congress; the Province of Georgia jined in 1775.</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>He was also the first to calculate the age of Earth by experiment, and described a precursor to the modern wind tunnel.</t>
+          <t>In 1774, twelve of the Thirteen Colonies sent delegates to the First Continental Congress; the Province of Georgia joined in 1775.</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Jaed</t>
+          <t>representativs</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Jawed</t>
+          <t>representatives</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>YouTube was founded on February 14, 2005, by Chad Hurley, Jaed Karim, and Steve Chen, who were former employees of PayPal.</t>
+          <t>It was later known as the Junta Grande when representativs from the provinces joined.</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>YouTube was founded on February 14, 2005, by Chad Hurley, Jawed Karim, and Steve Chen, who were former employees of PayPal.</t>
+          <t>It was later known as the Junta Grande when representatives from the provinces joined.</t>
         </is>
       </c>
     </row>
@@ -4263,22 +4263,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>sufferd</t>
+          <t>enablng</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>suffered</t>
+          <t>enabling</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Van Gogh sufferd from psychotic episodes and delusions.</t>
+          <t>The CEO plays a key role in enablng the team to do so.</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Van Gogh suffered from psychotic episodes and delusions.</t>
+          <t>The CEO plays a key role in enabling the team to do so.</t>
         </is>
       </c>
     </row>
@@ -4290,22 +4290,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>exeutive</t>
+          <t>ancint</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>executive</t>
+          <t>ancient</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>There is no organization, person, or institution which can interfere in the running of the courts, and the exeutive and legislative structures must obey the courts' decisions.</t>
+          <t>The argument that acquired seeds and animals could reproduce themselves was used to justify interest, but ancint Jewish religious prohibitions against usury (נשך NeSheKh) represented a "different view".</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>There is no organization, person, or institution which can interfere in the running of the courts, and the executive and legislative structures must obey the courts' decisions.</t>
+          <t>The argument that acquired seeds and animals could reproduce themselves was used to justify interest, but ancient Jewish religious prohibitions against usury (נשך NeSheKh) represented a "different view".</t>
         </is>
       </c>
     </row>
@@ -4317,22 +4317,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ussia</t>
+          <t>groth</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>growth</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>After Russia mobilised in Serbia's defence, Germany declared war on ussia and France, who had an alliance.</t>
+          <t>This groth accelerated further after 2017 with the transformer architecture.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>After Russia mobilised in Serbia's defence, Germany declared war on Russia and France, who had an alliance.</t>
+          <t>This growth accelerated further after 2017 with the transformer architecture.</t>
         </is>
       </c>
     </row>
@@ -4344,22 +4344,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>annivrsary</t>
+          <t>quadran</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>anniversary</t>
+          <t>quadrant</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The company celebrated its 100th annivrsary on October 16, 2023.</t>
+          <t>Newton invented a double-reflecting quadran and was first to theorise the Goos–Hänchen effect.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>The company celebrated its 100th anniversary on October 16, 2023.</t>
+          <t>Newton invented a double-reflecting quadrant and was first to theorise the Goos–Hänchen effect.</t>
         </is>
       </c>
     </row>
@@ -4371,22 +4371,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>inflence</t>
+          <t>fous</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>A subject of numerous major films, NASA has maintained an inflence on American popular culture since the Apollo 11 mission in 1969.</t>
+          <t>This is mainly based on the fact that top managers have succeeded as individuals which often leads to a fous on functional team objectives rather than to working interdependently on a shared goal.</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>A subject of numerous major films, NASA has maintained an influence on American popular culture since the Apollo 11 mission in 1969.</t>
+          <t>This is mainly based on the fact that top managers have succeeded as individuals which often leads to a focus on functional team objectives rather than to working interdependently on a shared goal.</t>
         </is>
       </c>
     </row>
@@ -4398,22 +4398,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>caes</t>
+          <t>Suprem</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>cases</t>
+          <t>Supreme</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Each justice has a single vote in deciding the caes argued before the court.</t>
+          <t>Congress, together with the Warren Court, continued to protect and expand the voting rights of all Americans, especially African Americans, through the Civil Rights Act of 1964, Voting Rights Act of 1965 and several Suprem Court rulings.</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Each justice has a single vote in deciding the cases argued before the court.</t>
+          <t>Congress, together with the Warren Court, continued to protect and expand the voting rights of all Americans, especially African Americans, through the Civil Rights Act of 1964, Voting Rights Act of 1965 and several Supreme Court rulings.</t>
         </is>
       </c>
     </row>
@@ -4425,22 +4425,22 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Renaissace</t>
+          <t>unti</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Renaissance</t>
+          <t>until</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Other major centers were Venice, Genoa, Milan, Rome during the Renaissace Papacy, and Naples.</t>
+          <t>After allied powers declined a union between Austria and Germany, the office was renamed to just State Chancellor of Austria and later changed to Federal Chancellor, which remained the position's final form unti present day.</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Other major centers were Venice, Genoa, Milan, Rome during the Renaissance Papacy, and Naples.</t>
+          <t>After allied powers declined a union between Austria and Germany, the office was renamed to just State Chancellor of Austria and later changed to Federal Chancellor, which remained the position's final form until present day.</t>
         </is>
       </c>
     </row>
@@ -4452,22 +4452,22 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>east</t>
+          <t>hrough</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>through</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Be a resident of Mexico for at east twenty years.</t>
+          <t>In many jurisdictions the judicial branch has the power to change laws hrough the process of judicial review.</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Be a resident of Mexico for at least twenty years.</t>
+          <t>In many jurisdictions the judicial branch has the power to change laws through the process of judicial review.</t>
         </is>
       </c>
     </row>
@@ -4479,22 +4479,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ward</t>
+          <t>ative</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Award</t>
+          <t>native</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Folio Magazine Gold Editorial Excellence (Eddie) ward – Consumer Magazine, News/Commentary/General Interest (single article), "What America Must Do" by Kenneth Rogoff, Jan/Feb 2008.</t>
+          <t>They may be ative to Anatolia or non-native.</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Folio Magazine Gold Editorial Excellence (Eddie) Award – Consumer Magazine, News/Commentary/General Interest (single article), "What America Must Do" by Kenneth Rogoff, Jan/Feb 2008.</t>
+          <t>They may be native to Anatolia or non-native.</t>
         </is>
       </c>
     </row>
@@ -4506,22 +4506,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>hell</t>
+          <t>meanig</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>shell</t>
+          <t>meaning</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>The command can match via wildcard characters but wildcard match text must be quoted to prevent hell globbing.</t>
+          <t>In contrast, the French-American historian Jacques Barzun speculated that Van Helmont had borrowed the word from the German Gäscht, meanig the froth resulting from fermentation.</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>The command can match via wildcard characters but wildcard match text must be quoted to prevent shell globbing.</t>
+          <t>In contrast, the French-American historian Jacques Barzun speculated that Van Helmont had borrowed the word from the German Gäscht, meaning the froth resulting from fermentation.</t>
         </is>
       </c>
     </row>
@@ -4533,22 +4533,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ritten</t>
+          <t>rasoning</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>reasoning</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>The leaves, with candidate names ritten on them, were put inside a mud pot.</t>
+          <t>Accurate and efficient rasoning is an unsolved problem.</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>The leaves, with candidate names written on them, were put inside a mud pot.</t>
+          <t>Accurate and efficient reasoning is an unsolved problem.</t>
         </is>
       </c>
     </row>
@@ -4560,22 +4560,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ublic</t>
+          <t>Ravux</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>Ravoux</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>This process is also used in many other Standardized Associations, ublic businesses, and organizations, from clubs to voluntary association and corporations.</t>
+          <t>After he discharged himself and moved to the Auberge Ravux in Auvers-sur-Oise near Paris, he came under the care of the homeopathic doctor Paul Gachet.</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>This process is also used in many other Standardized Associations, public businesses, and organizations, from clubs to voluntary association and corporations.</t>
+          <t>After he discharged himself and moved to the Auberge Ravoux in Auvers-sur-Oise near Paris, he came under the care of the homeopathic doctor Paul Gachet.</t>
         </is>
       </c>
     </row>
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>whle</t>
+          <t>civalric</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>while</t>
+          <t>chivalric</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Deserts are expanding, whle heat waves and wildfires are becoming more common.</t>
+          <t>In Spanish the name was known from civalric romances and Don Quixote.</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Deserts are expanding, while heat waves and wildfires are becoming more common.</t>
+          <t>In Spanish the name was known from chivalric romances and Don Quixote.</t>
         </is>
       </c>
     </row>
@@ -4614,22 +4614,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sovit</t>
+          <t>urds</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Soviet</t>
+          <t>Kurds</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>The war in Europe concluded with the liberation of German-occupied territories and the invasion of Germany by the Allies which culminated in the fall of Berlin to Sovit troops, and Germany's unconditional surrender on 8 May 1945.</t>
+          <t>Turkey is home to over 86 million people; most are ethnic Turks, while urds are the largest ethnic minority.</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>The war in Europe concluded with the liberation of German-occupied territories and the invasion of Germany by the Allies which culminated in the fall of Berlin to Soviet troops, and Germany's unconditional surrender on 8 May 1945.</t>
+          <t>Turkey is home to over 86 million people; most are ethnic Turks, while Kurds are the largest ethnic minority.</t>
         </is>
       </c>
     </row>
@@ -4641,22 +4641,1210 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>definitons</t>
+          <t>usting</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>definitions</t>
+          <t>ousting</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>The most expansive definitions may include informal but regularized practices, such as handshakes, whereas the most narrow definitons may only include institutions that are highly formalized (e.g.</t>
+          <t>Democracy was restored after Vargas' usting in 1945.</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>The most expansive definitions may include informal but regularized practices, such as handshakes, whereas the most narrow definitions may only include institutions that are highly formalized (e.g.</t>
+          <t>Democracy was restored after Vargas' ousting in 1945.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Assembl</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Assembly</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Emergency measures must be referred to the National Assembl for concurrence.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Emergency measures must be referred to the National Assembly for concurrence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>pltform</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>As of May 2019, videos were being uploaded to the pltform at a rate of more than 500 hours of content per minute, and as of mid-2024, there were approximately 14.8 billion videos in total.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>As of May 2019, videos were being uploaded to the platform at a rate of more than 500 hours of content per minute, and as of mid-2024, there were approximately 14.8 billion videos in total.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ethioian</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Ethiopian</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Adama Stadium is the home of Adama City FC, a member of the Ethioian Football Federation league.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Adama Stadium is the home of Adama City FC, a member of the Ethiopian Football Federation league.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>acadeic</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>academic</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Prior to the founding of the University of Cambridge in 1209, Cambridge and the area surrounding it already had developed a scholarly and ecclesiastical reputation largely due to the intellectual and acadeic contributions of monks from the nearby Ely Cathedral.</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Prior to the founding of the University of Cambridge in 1209, Cambridge and the area surrounding it already had developed a scholarly and ecclesiastical reputation largely due to the intellectual and academic contributions of monks from the nearby Ely Cathedral.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>eturned</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>returned</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>He lost the 1950 election but was eturned to office in 1951.</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>He lost the 1950 election but was returned to office in 1951.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>intergovernmentl</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>intergovernmental</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Statistical services of intergovernmentl and supranational organizations and governmental statistical agencies publish official statistics on international trade.</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Statistical services of intergovernmental and supranational organizations and governmental statistical agencies publish official statistics on international trade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>thrd</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>third</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>The Chinese president was the thrd to fifth highest-ranking position when it was re-established in 1982.</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>The Chinese president was the third to fifth highest-ranking position when it was re-established in 1982.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>publi</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>The University of Cambridge is a publi collegiate research university in Cambridge, England.</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>The University of Cambridge is a public collegiate research university in Cambridge, England.</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>reained</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>regained</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Overlooked for the new capital during the interwar period, the city has since reained much of its prominence.</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Overlooked for the new capital during the interwar period, the city has since regained much of its prominence.</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ocober</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>The office, which was first established by the federal Constitution of 1824, is currently held by Claudia Sheinbaum, who was sworn in on Ocober 1, 2024.</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>The office, which was first established by the federal Constitution of 1824, is currently held by Claudia Sheinbaum, who was sworn in on October 1, 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Eglish</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>He is widely regarded as the greatest writer in the Eglish language and the world's pre-eminent dramatist.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>He is widely regarded as the greatest writer in the English language and the world's pre-eminent dramatist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>sace</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>space</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Research is conducted in a wide variety of fields, including exobiology, astronomy, physical sciences, materials science, sace weather, meteorology, and human research including space medicine and the life sciences.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Research is conducted in a wide variety of fields, including exobiology, astronomy, physical sciences, materials science, space weather, meteorology, and human research including space medicine and the life sciences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>reducion</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>reduction</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Diplomatic sanctions – the reducion or removal of diplomatic ties, such as embassies.</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Diplomatic sanctions – the reduction or removal of diplomatic ties, such as embassies.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>witten</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>written</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>In Ottoman Turkish and Persian, it is witten as طربزون.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>In Ottoman Turkish and Persian, it is written as طربزون.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>modrn</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>modern</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>First inhabited by modrn humans during the Late Paleolithic, present-day Turkey was home to various ancient peoples.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>First inhabited by modern humans during the Late Paleolithic, present-day Turkey was home to various ancient peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Parliamen</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Parliament</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Consensus in Parliamen soon shifted to the war ending on American terms.</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Consensus in Parliament soon shifted to the war ending on American terms.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>theselves</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>themselves</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>By definition, the arts theselves are open to being continually redefined.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>By definition, the arts themselves are open to being continually redefined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>prliament</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>parliament</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>A prliament is a type of legislature, or law-making body, of a state.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A parliament is a type of legislature, or law-making body, of a state.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ecompass</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>encompass</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Medieval Arabic writings ecompass a rich tradition that unveils early insights into the field of sociology.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Medieval Arabic writings encompass a rich tradition that unveils early insights into the field of sociology.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>standoff</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>standoffs</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>There were dramatic standoff with segregationist authorities, who often responded violently.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>There were dramatic standoffs with segregationist authorities, who often responded violently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>identifed</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>identified</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Caterina – who later appears in Leonardo's notes as only "Caterina" or "Catelina" – is usually identifed as the Caterina Buti del Vacca, who married the local artisan Antonio di Piero Buti del Vacca, nicknamed L'Accattabriga, 'the quarrelsome one'.</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Caterina – who later appears in Leonardo's notes as only "Caterina" or "Catelina" – is usually identified as the Caterina Buti del Vacca, who married the local artisan Antonio di Piero Buti del Vacca, nicknamed L'Accattabriga, 'the quarrelsome one'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ther</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>It is so entrenched in Mexican politics that it has remained in place even as it was relaxed for ther offices.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>It is so entrenched in Mexican politics that it has remained in place even as it was relaxed for other offices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>devloping</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>The World Bank Group (WBG) is a family of five international organizations that make leveraged loans to devloping countries.</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>The World Bank Group (WBG) is a family of five international organizations that make leveraged loans to developing countries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>culturlly</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>culturally</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Legal rights are sometimes called civil rights or statutory rights and are culturlly and politically relative since they depend on a specific societal context to have meaning.</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Legal rights are sometimes called civil rights or statutory rights and are culturally and politically relative since they depend on a specific societal context to have meaning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>explainng</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>explaining</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Darwin's discovery is the unifying theory of the life sciences, explainng the unity and diversity of life.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Darwin's discovery is the unifying theory of the life sciences, explaining the unity and diversity of life.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>presidncies</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>presidencies</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>In all, 45 individuals have served, or are serving, 47 presidncies as of the current 60th four-year term.</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>In all, 45 individuals have served, or are serving, 47 presidencies as of the current 60th four-year term.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>beng</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>being</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Funding and interest vastly increased after 2012 when graphics processing units started beng used to accelerate neural networks, and deep learning outperformed previous AI techniques.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Funding and interest vastly increased after 2012 when graphics processing units started being used to accelerate neural networks, and deep learning outperformed previous AI techniques.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>generlly</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>generally</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>In working on this task, it generlly has a much higher responsibility and higher autonomy than other types of teams.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>In working on this task, it generally has a much higher responsibility and higher autonomy than other types of teams.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ebruary</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Born in a one-room log cabin in Kentucky on ebruary 12, 1809, Abraham Lincoln was raised on Sinking Spring Farm near Hodgenville, Kentucky.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Born in a one-room log cabin in Kentucky on February 12, 1809, Abraham Lincoln was raised on Sinking Spring Farm near Hodgenville, Kentucky.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ialian</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>The origins of its name (which in Ialian means "medicine") are quite uncertain, and many hypotheses have been put forward.</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>The origins of its name (which in Italian means "medicine") are quite uncertain, and many hypotheses have been put forward.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>rowd</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>rowed</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>He rowd to second place and a silver medal in 1993 behind Great Britain's Peter Haining.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>He rowed to second place and a silver medal in 1993 behind Great Britain's Peter Haining.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>collaorated</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>collaborated</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>In the last phase of his life he wrote tragicomedies (also known as romances) such as The Winter's Tale and The Tempest, and collaorated with other playwrights.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>In the last phase of his life he wrote tragicomedies (also known as romances) such as The Winter's Tale and The Tempest, and collaborated with other playwrights.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>offieholders</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>officeholders</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>These provisions have been interpreted as providing broad leeway for offieholders to serve a variety of roles as suited to their preferences, skill set, or circumstances.</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>These provisions have been interpreted as providing broad leeway for officeholders to serve a variety of roles as suited to their preferences, skill set, or circumstances.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>frst</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>The Shekel are the frst to refer to a unit of weight and currency, used by the Semitic peoples.</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>The Shekel are the first to refer to a unit of weight and currency, used by the Semitic peoples.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>reate</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Since the Neolithic Revolution, agriculture has been an efficient method to reate food surplus.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Since the Neolithic Revolution, agriculture has been an efficient method to create food surplus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>incude</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Examples of literature incude fiction, drama, poetry, and prose.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Examples of literature include fiction, drama, poetry, and prose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>enoted</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>denoted</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>In Western Europe, prior to the 18th century, literature enoted all books and writing.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>In Western Europe, prior to the 18th century, literature denoted all books and writing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>creat</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>create</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>He argues that once people consent to be governed by laws, only those representatives they have chosen can creat laws on their behalf, and they are bound solely by laws enacted by these representatives.</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>He argues that once people consent to be governed by laws, only those representatives they have chosen can create laws on their behalf, and they are bound solely by laws enacted by these representatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>anctions</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>sanctions</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Sport anctions – preventing one country's people and teams from competing in international events.</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Sport sanctions – preventing one country's people and teams from competing in international events.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>uenos</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Buenos</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Finally, after the 1861 Battle of Pavón, uenos Aires took over the Confederation.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Finally, after the 1861 Battle of Pavón, Buenos Aires took over the Confederation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>refrence</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>In the 18th century in the United Kingdom, members of parliament disparagingly used the title in refrence to Sir Robert Walpole (whose official title was First Lord of the Treasury).</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>In the 18th century in the United Kingdom, members of parliament disparagingly used the title in reference to Sir Robert Walpole (whose official title was First Lord of the Treasury).</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>sond</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>sound</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>AllMusic called it album "one of 2010’s most attention-getting debuts", writing that "Derek Miller and Alexis Krauss craft a sond that’s all climax," featuring a "boldness, immediacy, and sense of fun that’s missing from too much other music".</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>AllMusic called it album "one of 2010’s most attention-getting debuts", writing that "Derek Miller and Alexis Krauss craft a sound that’s all climax," featuring a "boldness, immediacy, and sense of fun that’s missing from too much other music".</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>shll</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>shell</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>The command can match via wildcard characters but wildcard match text must be quoted to prevent shll globbing.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>The command can match via wildcard characters but wildcard match text must be quoted to prevent shell globbing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>omission</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>oles</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>roles</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Later, the oles of architects and engineers became separated.</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Later, the roles of architects and engineers became separated.</t>
         </is>
       </c>
     </row>
